--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44466</v>
+        <v>44166</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2200</v>
+        <v>667</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44166</v>
+        <v>44466</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>667</v>
+        <v>2200</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44166</v>
+        <v>44483</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>667</v>
+        <v>2000</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44466</v>
+        <v>44166</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,35 +600,115 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>20</v>
+      </c>
+      <c r="N3" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>La Ligua</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>667</v>
+      </c>
+      <c r="T3" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>44466</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M4" t="n">
         <v>80</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N4" t="n">
         <v>11000</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O4" t="n">
         <v>11000</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P4" t="n">
         <v>11000</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>$/bandeja 5 kilos</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>La Ligua</t>
         </is>
       </c>
-      <c r="S3" t="n">
+      <c r="S4" t="n">
         <v>2200</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T4" t="n">
         <v>5</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44166</v>
+        <v>44488</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,11 +600,11 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
         <v>12000</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>667</v>
+        <v>2400</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44466</v>
+        <v>44166</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -680,35 +680,115 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>20</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>La Ligua</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>667</v>
+      </c>
+      <c r="T4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>44466</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M5" t="n">
         <v>80</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N5" t="n">
         <v>11000</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>11000</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>11000</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>$/bandeja 5 kilos</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>La Ligua</t>
         </is>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>2200</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>5</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44483</v>
+        <v>44496</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44488</v>
+        <v>44483</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44166</v>
+        <v>44488</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -680,11 +680,11 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>12000</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>667</v>
+        <v>2400</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44466</v>
+        <v>44166</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -760,35 +760,115 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>20</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>La Ligua</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>667</v>
+      </c>
+      <c r="T5" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>44466</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M6" t="n">
         <v>80</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N6" t="n">
         <v>11000</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O6" t="n">
         <v>11000</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P6" t="n">
         <v>11000</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>$/bandeja 5 kilos</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>La Ligua</t>
         </is>
       </c>
-      <c r="S5" t="n">
+      <c r="S6" t="n">
         <v>2200</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T6" t="n">
         <v>5</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44496</v>
+        <v>44488</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44488</v>
+        <v>44496</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N4" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P4" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44166</v>
+        <v>44466</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O5" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P5" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>667</v>
+        <v>2200</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44466</v>
+        <v>44166</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2200</v>
+        <v>667</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44488</v>
+        <v>44503</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O2" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P2" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44483</v>
+        <v>44488</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44496</v>
+        <v>44483</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44466</v>
+        <v>44496</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N5" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="O5" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="P5" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44166</v>
+        <v>44466</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -840,35 +840,115 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>80</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>La Ligua</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>2200</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M7" t="n">
         <v>20</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N7" t="n">
         <v>12000</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O7" t="n">
         <v>12000</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>12000</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>La Ligua</t>
         </is>
       </c>
-      <c r="S6" t="n">
+      <c r="S7" t="n">
         <v>667</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T7" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -952,6 +952,166 @@
         <v>18</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>45</v>
+      </c>
+      <c r="N8" t="n">
+        <v>28000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>28000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>28000</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>2800</v>
+      </c>
+      <c r="T8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>45</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3200</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3200</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3200</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>320</v>
+      </c>
+      <c r="T9" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44503</v>
+        <v>44515</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
         <v>28000</v>
@@ -542,7 +542,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44488</v>
+        <v>44503</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44483</v>
+        <v>44488</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44496</v>
+        <v>44483</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N5" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O5" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P5" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44466</v>
+        <v>44496</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N6" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44166</v>
+        <v>44466</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>667</v>
+        <v>2200</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44511</v>
+        <v>44166</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1000,36 +1000,36 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1087,28 +1087,108 @@
         <v>45</v>
       </c>
       <c r="N9" t="n">
+        <v>28000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>28000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>28000</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>2800</v>
+      </c>
+      <c r="T9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>45</v>
+      </c>
+      <c r="N10" t="n">
         <v>3200</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O10" t="n">
         <v>3200</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>3200</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="S9" t="n">
+      <c r="S10" t="n">
         <v>320</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T10" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44515</v>
+        <v>44488</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44503</v>
+        <v>44511</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
         <v>28000</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44488</v>
+        <v>44511</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="O4" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="P4" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2400</v>
+        <v>320</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44483</v>
+        <v>44503</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="O5" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P5" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44496</v>
+        <v>44466</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="P6" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44466</v>
+        <v>44483</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N7" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44166</v>
+        <v>44496</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1000,36 +1000,36 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44511</v>
+        <v>44166</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44511</v>
+        <v>44515</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O10" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P10" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44483</v>
+        <v>44519</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44496</v>
+        <v>44483</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44166</v>
+        <v>44496</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44515</v>
+        <v>44166</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1160,35 +1160,115 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>20</v>
+      </c>
+      <c r="N10" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>La Ligua</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>667</v>
+      </c>
+      <c r="T10" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>44515</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M11" t="n">
         <v>80</v>
       </c>
-      <c r="N10" t="n">
-        <v>28000</v>
-      </c>
-      <c r="O10" t="n">
-        <v>28000</v>
-      </c>
-      <c r="P10" t="n">
-        <v>28000</v>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="N11" t="n">
+        <v>28000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>28000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>28000</v>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>Provincia de Los Andes</t>
         </is>
       </c>
-      <c r="S10" t="n">
+      <c r="S11" t="n">
         <v>2800</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T11" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44488</v>
+        <v>44466</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O2" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P2" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44511</v>
+        <v>44488</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44511</v>
+        <v>44483</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>3200</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>3200</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>3200</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>320</v>
+        <v>2000</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44503</v>
+        <v>44511</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
         <v>28000</v>
@@ -782,7 +782,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S5" t="n">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44466</v>
+        <v>44511</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
-        <v>11000</v>
+        <v>3200</v>
       </c>
       <c r="O6" t="n">
-        <v>11000</v>
+        <v>3200</v>
       </c>
       <c r="P6" t="n">
-        <v>11000</v>
+        <v>3200</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2200</v>
+        <v>320</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44519</v>
+        <v>44515</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
         <v>28000</v>
@@ -942,7 +942,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S7" t="n">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44483</v>
+        <v>44503</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44166</v>
+        <v>44519</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44515</v>
+        <v>44166</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44488</v>
+        <v>44503</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44483</v>
+        <v>44496</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44511</v>
+        <v>44515</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
         <v>28000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44511</v>
+        <v>44483</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N6" t="n">
-        <v>3200</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>3200</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>3200</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>320</v>
+        <v>2000</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44515</v>
+        <v>44488</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44503</v>
+        <v>44166</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1000,36 +1000,36 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44496</v>
+        <v>44519</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
         <v>28000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44519</v>
+        <v>44511</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
         <v>28000</v>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S10" t="n">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44166</v>
+        <v>44511</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>667</v>
+        <v>320</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44466</v>
+        <v>44519</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="O2" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="P2" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44503</v>
+        <v>44166</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44496</v>
+        <v>44483</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44515</v>
+        <v>44496</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N5" t="n">
         <v>28000</v>
@@ -782,7 +782,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S5" t="n">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44483</v>
+        <v>44515</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44166</v>
+        <v>44466</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1000,24 +1000,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>667</v>
+        <v>2200</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44519</v>
+        <v>44503</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
         <v>28000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44519</v>
+        <v>44515</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
         <v>28000</v>
@@ -542,7 +542,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44166</v>
+        <v>44503</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44483</v>
+        <v>44488</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44496</v>
+        <v>44483</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N5" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O5" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P5" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44515</v>
+        <v>44466</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -847,29 +847,29 @@
         <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="P6" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44488</v>
+        <v>44511</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="T7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44466</v>
+        <v>44511</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N8" t="n">
-        <v>11000</v>
+        <v>3200</v>
       </c>
       <c r="O8" t="n">
-        <v>11000</v>
+        <v>3200</v>
       </c>
       <c r="P8" t="n">
-        <v>11000</v>
+        <v>3200</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2200</v>
+        <v>320</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44503</v>
+        <v>44166</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44511</v>
+        <v>44519</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
         <v>28000</v>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S10" t="n">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44511</v>
+        <v>44496</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N11" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O11" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P11" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T11" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44515</v>
+        <v>44488</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44488</v>
+        <v>44496</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N4" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P4" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44483</v>
+        <v>44519</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="O5" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P5" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44511</v>
+        <v>44166</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -920,36 +920,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44511</v>
+        <v>44515</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44166</v>
+        <v>44511</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44519</v>
+        <v>44511</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="O10" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="P10" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2800</v>
+        <v>320</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44496</v>
+        <v>44483</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N11" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O11" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P11" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44503</v>
+        <v>44511</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
         <v>28000</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44496</v>
+        <v>44511</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="O4" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="P4" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2800</v>
+        <v>320</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44519</v>
+        <v>44166</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -760,36 +760,36 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O5" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P5" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44166</v>
+        <v>44483</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -920,36 +920,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>667</v>
+        <v>2000</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44515</v>
+        <v>44503</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
         <v>28000</v>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S8" t="n">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44511</v>
+        <v>44519</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
         <v>28000</v>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S9" t="n">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44511</v>
+        <v>44496</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N10" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O10" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P10" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44483</v>
+        <v>44515</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N11" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="O11" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P11" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44488</v>
+        <v>44496</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N2" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O2" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P2" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44511</v>
+        <v>44503</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
         <v>28000</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44511</v>
+        <v>44519</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P4" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44466</v>
+        <v>44488</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44503</v>
+        <v>44511</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N8" t="n">
         <v>28000</v>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S8" t="n">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44519</v>
+        <v>44511</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="P9" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2800</v>
+        <v>320</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44496</v>
+        <v>44515</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
         <v>28000</v>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S10" t="n">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44515</v>
+        <v>44466</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1247,29 +1247,29 @@
         <v>80</v>
       </c>
       <c r="N11" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="O11" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="P11" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44496</v>
+        <v>44166</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44519</v>
+        <v>44488</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O4" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P4" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44166</v>
+        <v>44515</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -760,36 +760,36 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O5" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P5" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44488</v>
+        <v>44466</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44483</v>
+        <v>44519</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44511</v>
+        <v>44483</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44511</v>
+        <v>44496</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N9" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44515</v>
+        <v>44511</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
         <v>28000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44466</v>
+        <v>44511</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N11" t="n">
-        <v>11000</v>
+        <v>3200</v>
       </c>
       <c r="O11" t="n">
-        <v>11000</v>
+        <v>3200</v>
       </c>
       <c r="P11" t="n">
-        <v>11000</v>
+        <v>3200</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2200</v>
+        <v>320</v>
       </c>
       <c r="T11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44166</v>
+        <v>44466</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O2" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P2" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>667</v>
+        <v>2200</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44503</v>
+        <v>44488</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44488</v>
+        <v>44519</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P4" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44466</v>
+        <v>44503</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44519</v>
+        <v>44483</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44483</v>
+        <v>44166</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1000,36 +1000,36 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2000</v>
+        <v>667</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44496</v>
+        <v>44511</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
         <v>28000</v>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S9" t="n">
@@ -1167,13 +1167,13 @@
         <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="O10" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="P10" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2800</v>
+        <v>320</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44511</v>
+        <v>44496</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N11" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O11" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P11" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T11" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44466</v>
+        <v>44511</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="O2" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="P2" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44488</v>
+        <v>44511</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2400</v>
+        <v>320</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44519</v>
+        <v>44496</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N4" t="n">
         <v>28000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44515</v>
+        <v>44466</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -767,29 +767,29 @@
         <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="O5" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="P5" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44503</v>
+        <v>44483</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N6" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44483</v>
+        <v>44503</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44166</v>
+        <v>44488</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1000,11 +1000,11 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
         <v>12000</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>667</v>
+        <v>2400</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44511</v>
+        <v>44166</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44511</v>
+        <v>44519</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O10" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P10" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44496</v>
+        <v>44515</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N11" t="n">
         <v>28000</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S11" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44511</v>
+        <v>44488</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44511</v>
+        <v>44519</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O3" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P3" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44496</v>
+        <v>44511</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
         <v>28000</v>
@@ -702,7 +702,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44466</v>
+        <v>44511</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>11000</v>
+        <v>3200</v>
       </c>
       <c r="O5" t="n">
-        <v>11000</v>
+        <v>3200</v>
       </c>
       <c r="P5" t="n">
-        <v>11000</v>
+        <v>3200</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2200</v>
+        <v>320</v>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44483</v>
+        <v>44515</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44503</v>
+        <v>44483</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44488</v>
+        <v>44503</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44166</v>
+        <v>44466</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>667</v>
+        <v>2200</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44519</v>
+        <v>44496</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N10" t="n">
         <v>28000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44515</v>
+        <v>44166</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44488</v>
+        <v>44503</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O2" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P2" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44519</v>
+        <v>44483</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N3" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O3" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44511</v>
+        <v>44488</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O4" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P4" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44511</v>
+        <v>44466</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>3200</v>
+        <v>11000</v>
       </c>
       <c r="O5" t="n">
-        <v>3200</v>
+        <v>11000</v>
       </c>
       <c r="P5" t="n">
-        <v>3200</v>
+        <v>11000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>320</v>
+        <v>2200</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44515</v>
+        <v>44166</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -840,36 +840,36 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44483</v>
+        <v>44511</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44503</v>
+        <v>44511</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2800</v>
+        <v>320</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44466</v>
+        <v>44515</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1087,29 +1087,29 @@
         <v>80</v>
       </c>
       <c r="N9" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="T9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44496</v>
+        <v>44519</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
         <v>28000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44166</v>
+        <v>44496</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44483</v>
+        <v>44511</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44488</v>
+        <v>44511</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="O4" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="P4" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2400</v>
+        <v>320</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44466</v>
+        <v>44166</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O5" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P5" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2200</v>
+        <v>667</v>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44166</v>
+        <v>44466</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>667</v>
+        <v>2200</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44511</v>
+        <v>44515</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
         <v>28000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44511</v>
+        <v>44496</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N8" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44515</v>
+        <v>44488</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44519</v>
+        <v>44483</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N10" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O10" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P10" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44496</v>
+        <v>44519</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
         <v>28000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44511</v>
+        <v>44488</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44511</v>
+        <v>44483</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>3200</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>3200</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>3200</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>320</v>
+        <v>2000</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44166</v>
+        <v>44515</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -760,36 +760,36 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O5" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P5" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44466</v>
+        <v>44519</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44515</v>
+        <v>44496</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N7" t="n">
         <v>28000</v>
@@ -942,7 +942,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S7" t="n">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44496</v>
+        <v>44511</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N8" t="n">
         <v>28000</v>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S8" t="n">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44488</v>
+        <v>44511</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2400</v>
+        <v>320</v>
       </c>
       <c r="T9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44483</v>
+        <v>44466</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O10" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P10" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44519</v>
+        <v>44166</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44503</v>
+        <v>44166</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44488</v>
+        <v>44466</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44483</v>
+        <v>44519</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44515</v>
+        <v>44503</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
         <v>28000</v>
@@ -782,7 +782,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S5" t="n">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44519</v>
+        <v>44511</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
         <v>28000</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S6" t="n">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44496</v>
+        <v>44511</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="P7" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2800</v>
+        <v>320</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44511</v>
+        <v>44515</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
         <v>28000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44511</v>
+        <v>44483</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N9" t="n">
-        <v>3200</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>3200</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>3200</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>320</v>
+        <v>2000</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44466</v>
+        <v>44488</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44166</v>
+        <v>44496</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44166</v>
+        <v>44483</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>667</v>
+        <v>2000</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44466</v>
+        <v>44511</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="O3" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="P3" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44519</v>
+        <v>44511</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="O4" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="P4" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2800</v>
+        <v>320</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44503</v>
+        <v>44166</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -760,36 +760,36 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O5" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P5" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44511</v>
+        <v>44488</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44511</v>
+        <v>44503</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44515</v>
+        <v>44466</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1007,29 +1007,29 @@
         <v>80</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44483</v>
+        <v>44496</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N9" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44488</v>
+        <v>44519</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="T10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44496</v>
+        <v>44515</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N11" t="n">
         <v>28000</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S11" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44483</v>
+        <v>44519</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44511</v>
+        <v>44488</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44511</v>
+        <v>44515</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P4" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44166</v>
+        <v>44503</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -760,36 +760,36 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O5" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P5" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44488</v>
+        <v>44483</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44503</v>
+        <v>44166</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -920,36 +920,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44466</v>
+        <v>44511</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N8" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44496</v>
+        <v>44511</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="P9" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2800</v>
+        <v>320</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44519</v>
+        <v>44466</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="O10" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="P10" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44515</v>
+        <v>44496</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N11" t="n">
         <v>28000</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S11" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44519</v>
+        <v>44511</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
         <v>28000</v>
@@ -542,7 +542,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44488</v>
+        <v>44511</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2400</v>
+        <v>320</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44515</v>
+        <v>44483</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44503</v>
+        <v>44466</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="O5" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="P5" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44483</v>
+        <v>44515</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44166</v>
+        <v>44496</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -920,36 +920,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44511</v>
+        <v>44519</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
         <v>28000</v>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S8" t="n">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44511</v>
+        <v>44166</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>320</v>
+        <v>667</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44466</v>
+        <v>44488</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
         <v>28000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44515</v>
+        <v>44859</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44496</v>
+        <v>44515</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
         <v>28000</v>
@@ -942,7 +942,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S7" t="n">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44519</v>
+        <v>44496</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N8" t="n">
         <v>28000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44166</v>
+        <v>44519</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44488</v>
+        <v>44166</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1160,11 +1160,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
         <v>12000</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2400</v>
+        <v>667</v>
       </c>
       <c r="T10" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44503</v>
+        <v>44488</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,31 +1244,191 @@
         </is>
       </c>
       <c r="M11" t="n">
+        <v>100</v>
+      </c>
+      <c r="N11" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>La Ligua</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>2400</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44858</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>90</v>
+      </c>
+      <c r="N12" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>4000</v>
+      </c>
+      <c r="T12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>50</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N13" t="n">
         <v>28000</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O13" t="n">
         <v>28000</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P13" t="n">
         <v>28000</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="S11" t="n">
+      <c r="S13" t="n">
         <v>2800</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T13" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44496</v>
+        <v>44868</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1029,7 +1029,7 @@
         <v>2800</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44519</v>
+        <v>44496</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N9" t="n">
         <v>28000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44166</v>
+        <v>44519</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44488</v>
+        <v>44166</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,11 +1240,11 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
         <v>12000</v>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2400</v>
+        <v>667</v>
       </c>
       <c r="T11" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44858</v>
+        <v>44488</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44503</v>
+        <v>44858</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,31 +1404,111 @@
         </is>
       </c>
       <c r="M13" t="n">
+        <v>90</v>
+      </c>
+      <c r="N13" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>4000</v>
+      </c>
+      <c r="T13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>50</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N14" t="n">
         <v>28000</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O14" t="n">
         <v>28000</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P14" t="n">
         <v>28000</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="S13" t="n">
+      <c r="S14" t="n">
         <v>2800</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T14" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44519</v>
+        <v>44874</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44166</v>
+        <v>44519</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44488</v>
+        <v>44166</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,11 +1320,11 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
         <v>12000</v>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2400</v>
+        <v>667</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44858</v>
+        <v>44488</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44503</v>
+        <v>44858</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,31 +1484,111 @@
         </is>
       </c>
       <c r="M14" t="n">
+        <v>90</v>
+      </c>
+      <c r="N14" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O14" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>4000</v>
+      </c>
+      <c r="T14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>50</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N15" t="n">
         <v>28000</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O15" t="n">
         <v>28000</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P15" t="n">
         <v>28000</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="S14" t="n">
+      <c r="S15" t="n">
         <v>2800</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T15" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44166</v>
+        <v>44879</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N12" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="O12" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="P12" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>667</v>
+        <v>3000</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44488</v>
+        <v>44166</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1400,11 +1400,11 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N13" t="n">
         <v>12000</v>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2400</v>
+        <v>667</v>
       </c>
       <c r="T13" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44858</v>
+        <v>44488</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="T14" t="n">
         <v>5</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44503</v>
+        <v>44858</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,31 +1564,111 @@
         </is>
       </c>
       <c r="M15" t="n">
+        <v>90</v>
+      </c>
+      <c r="N15" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O15" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>4000</v>
+      </c>
+      <c r="T15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>50</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N16" t="n">
         <v>28000</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O16" t="n">
         <v>28000</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P16" t="n">
         <v>28000</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="S15" t="n">
+      <c r="S16" t="n">
         <v>2800</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T16" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44511</v>
+        <v>44166</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44511</v>
+        <v>44858</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="N3" t="n">
-        <v>3200</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>3200</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>3200</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>320</v>
+        <v>4000</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44483</v>
+        <v>44515</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44466</v>
+        <v>44519</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="O5" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="P5" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44859</v>
+        <v>44511</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44515</v>
+        <v>44511</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="P7" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2800</v>
+        <v>320</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44868</v>
+        <v>44859</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1007,13 +1007,13 @@
         <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44496</v>
+        <v>44879</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44874</v>
+        <v>44868</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44519</v>
+        <v>44483</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N11" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O11" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P11" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44879</v>
+        <v>44874</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44166</v>
+        <v>44466</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1400,24 +1400,24 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>667</v>
+        <v>2200</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44858</v>
+        <v>44503</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="T15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44503</v>
+        <v>44496</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N16" t="n">
         <v>28000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44466</v>
+        <v>44889</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="O13" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44488</v>
+        <v>44466</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N14" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O14" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P14" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="T14" t="n">
         <v>5</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44503</v>
+        <v>44488</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P15" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
         <v>28000</v>
@@ -1669,6 +1669,86 @@
         <v>2800</v>
       </c>
       <c r="T16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="E17" t="n">
+        <v>9</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>55</v>
+      </c>
+      <c r="N17" t="n">
+        <v>28000</v>
+      </c>
+      <c r="O17" t="n">
+        <v>28000</v>
+      </c>
+      <c r="P17" t="n">
+        <v>28000</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>2800</v>
+      </c>
+      <c r="T17" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44166</v>
+        <v>44889</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="O2" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>667</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44858</v>
+        <v>44488</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44515</v>
+        <v>44511</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
         <v>28000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44519</v>
+        <v>44511</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="O5" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="P5" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2800</v>
+        <v>320</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44511</v>
+        <v>44483</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N6" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44511</v>
+        <v>44503</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44859</v>
+        <v>44166</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1000,36 +1000,36 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>4000</v>
+        <v>667</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44879</v>
+        <v>44858</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="N9" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44868</v>
+        <v>44466</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O10" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P10" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44483</v>
+        <v>44859</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="T11" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44889</v>
+        <v>44879</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
         <v>30000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44466</v>
+        <v>44496</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N14" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="O14" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="P14" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="T14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44488</v>
+        <v>44515</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N15" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P15" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="T15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44503</v>
+        <v>44868</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="O16" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="P16" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1669,7 +1669,7 @@
         <v>2800</v>
       </c>
       <c r="T16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44496</v>
+        <v>44519</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
         <v>28000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44483</v>
+        <v>44901</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44503</v>
+        <v>44483</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44166</v>
+        <v>44503</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1000,36 +1000,36 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44858</v>
+        <v>44166</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4000</v>
+        <v>667</v>
       </c>
       <c r="T9" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44466</v>
+        <v>44858</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N10" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2200</v>
+        <v>4000</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44859</v>
+        <v>44466</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="T11" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44874</v>
+        <v>44859</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44879</v>
+        <v>44874</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P13" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44496</v>
+        <v>44879</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O14" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T14" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44515</v>
+        <v>44496</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N15" t="n">
         <v>28000</v>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S15" t="n">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44868</v>
+        <v>44515</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N16" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="O16" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S16" t="n">
         <v>2800</v>
       </c>
       <c r="T16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44519</v>
+        <v>44868</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1727,17 +1727,17 @@
         <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="O17" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="P17" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1749,6 +1749,86 @@
         <v>2800</v>
       </c>
       <c r="T17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>44519</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>30</v>
+      </c>
+      <c r="N18" t="n">
+        <v>28000</v>
+      </c>
+      <c r="O18" t="n">
+        <v>28000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>28000</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>2800</v>
+      </c>
+      <c r="T18" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44879</v>
+        <v>44902</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="N14" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T14" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44496</v>
+        <v>44879</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P15" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44515</v>
+        <v>44496</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N16" t="n">
         <v>28000</v>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S16" t="n">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44868</v>
+        <v>44515</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,32 +1724,32 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N17" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="O17" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="P17" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S17" t="n">
         <v>2800</v>
       </c>
       <c r="T17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44519</v>
+        <v>44868</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1807,17 +1807,17 @@
         <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="P18" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1829,6 +1829,86 @@
         <v>2800</v>
       </c>
       <c r="T18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>44519</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>30</v>
+      </c>
+      <c r="N19" t="n">
+        <v>28000</v>
+      </c>
+      <c r="O19" t="n">
+        <v>28000</v>
+      </c>
+      <c r="P19" t="n">
+        <v>28000</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>2800</v>
+      </c>
+      <c r="T19" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44889</v>
+        <v>44483</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44488</v>
+        <v>44902</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44511</v>
+        <v>44859</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44511</v>
+        <v>44515</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O5" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P5" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44901</v>
+        <v>44519</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44483</v>
+        <v>44874</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44503</v>
+        <v>44858</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44166</v>
+        <v>44496</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44858</v>
+        <v>44901</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44466</v>
+        <v>44166</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2200</v>
+        <v>667</v>
       </c>
       <c r="T11" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44859</v>
+        <v>44868</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1327,13 +1327,13 @@
         <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44874</v>
+        <v>44488</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="T13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44902</v>
+        <v>44889</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T14" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44879</v>
+        <v>44503</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O15" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P15" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44496</v>
+        <v>44466</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N16" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="O16" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="P16" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="T16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44515</v>
+        <v>44511</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N17" t="n">
         <v>28000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44868</v>
+        <v>44511</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N18" t="n">
-        <v>14000</v>
+        <v>3200</v>
       </c>
       <c r="O18" t="n">
-        <v>14000</v>
+        <v>3200</v>
       </c>
       <c r="P18" t="n">
-        <v>14000</v>
+        <v>3200</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2800</v>
+        <v>320</v>
       </c>
       <c r="T18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44519</v>
+        <v>44879</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O19" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P19" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44902</v>
+        <v>44921</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="N3" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2500</v>
+        <v>2143</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44859</v>
+        <v>44902</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44515</v>
+        <v>44859</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44519</v>
+        <v>44515</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
         <v>28000</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S6" t="n">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44874</v>
+        <v>44519</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44858</v>
+        <v>44874</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44496</v>
+        <v>44858</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44901</v>
+        <v>44496</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44166</v>
+        <v>44901</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>667</v>
+        <v>2500</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44868</v>
+        <v>44166</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O12" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44488</v>
+        <v>44868</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44889</v>
+        <v>44488</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="P14" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="T14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44503</v>
+        <v>44889</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1567,13 +1567,13 @@
         <v>50</v>
       </c>
       <c r="N15" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P15" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44466</v>
+        <v>44503</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="O16" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="T16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44511</v>
+        <v>44466</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,32 +1724,32 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N17" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="O17" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="P17" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="T17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1807,13 +1807,13 @@
         <v>45</v>
       </c>
       <c r="N18" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O18" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T18" t="n">
         <v>10</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44879</v>
+        <v>44511</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,31 +1884,111 @@
         </is>
       </c>
       <c r="M19" t="n">
+        <v>45</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3200</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3200</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3200</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>320</v>
+      </c>
+      <c r="T19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>44879</v>
+      </c>
+      <c r="E20" t="n">
+        <v>9</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>25</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N20" t="n">
         <v>30000</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O20" t="n">
         <v>30000</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P20" t="n">
         <v>30000</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="S19" t="n">
+      <c r="S20" t="n">
         <v>3000</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T20" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44921</v>
+        <v>44515</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2143</v>
+        <v>2800</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44902</v>
+        <v>44859</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44859</v>
+        <v>44496</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44515</v>
+        <v>44466</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -847,29 +847,29 @@
         <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="P6" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44519</v>
+        <v>44511</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
         <v>28000</v>
@@ -942,7 +942,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S7" t="n">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44874</v>
+        <v>44511</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="P8" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2500</v>
+        <v>320</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44858</v>
+        <v>44874</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44496</v>
+        <v>44902</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N10" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44901</v>
+        <v>44166</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2500</v>
+        <v>667</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44166</v>
+        <v>44503</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O12" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P12" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44868</v>
+        <v>44921</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2800</v>
+        <v>2143</v>
       </c>
       <c r="T13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44488</v>
+        <v>44901</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="T14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44503</v>
+        <v>44519</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
         <v>28000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44466</v>
+        <v>44858</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N17" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2200</v>
+        <v>4000</v>
       </c>
       <c r="T17" t="n">
         <v>5</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44511</v>
+        <v>44868</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="P18" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S18" t="n">
         <v>2800</v>
       </c>
       <c r="T18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44511</v>
+        <v>44879</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>3200</v>
+        <v>30000</v>
       </c>
       <c r="O19" t="n">
-        <v>3200</v>
+        <v>30000</v>
       </c>
       <c r="P19" t="n">
-        <v>3200</v>
+        <v>30000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>320</v>
+        <v>3000</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44879</v>
+        <v>44488</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,32 +1964,32 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="O20" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="P20" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="T20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44515</v>
+        <v>44921</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N3" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2800</v>
+        <v>2143</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44859</v>
+        <v>44902</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44496</v>
+        <v>44859</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44466</v>
+        <v>44515</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -847,29 +847,29 @@
         <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44511</v>
+        <v>44519</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
         <v>28000</v>
@@ -942,7 +942,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S7" t="n">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44511</v>
+        <v>44874</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>3200</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>3200</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>3200</v>
+        <v>25000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>320</v>
+        <v>2500</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44874</v>
+        <v>44858</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44902</v>
+        <v>44496</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44166</v>
+        <v>44901</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>667</v>
+        <v>2500</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44503</v>
+        <v>44166</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O12" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T12" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44921</v>
+        <v>44868</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2143</v>
+        <v>2800</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44901</v>
+        <v>44488</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P14" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="T14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44519</v>
+        <v>44503</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
         <v>28000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44858</v>
+        <v>44466</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="T17" t="n">
         <v>5</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44868</v>
+        <v>44511</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N18" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="O18" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S18" t="n">
         <v>2800</v>
       </c>
       <c r="T18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44879</v>
+        <v>44511</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N19" t="n">
-        <v>30000</v>
+        <v>3200</v>
       </c>
       <c r="O19" t="n">
-        <v>30000</v>
+        <v>3200</v>
       </c>
       <c r="P19" t="n">
-        <v>30000</v>
+        <v>3200</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3000</v>
+        <v>320</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44488</v>
+        <v>44879</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,32 +1964,32 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N20" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="O20" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="P20" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44483</v>
+        <v>44511</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44515</v>
+        <v>44511</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="O3" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="P3" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2800</v>
+        <v>320</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44496</v>
+        <v>44519</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
         <v>28000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44466</v>
+        <v>44515</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -847,29 +847,29 @@
         <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44511</v>
+        <v>44503</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
         <v>28000</v>
@@ -942,7 +942,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S7" t="n">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44511</v>
+        <v>44496</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N8" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44902</v>
+        <v>44868</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44166</v>
+        <v>44858</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>667</v>
+        <v>4000</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44503</v>
+        <v>44488</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O12" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44921</v>
+        <v>44879</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2143</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44901</v>
+        <v>44483</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P14" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="T14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44889</v>
+        <v>44466</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N15" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="O15" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="P15" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="T15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44519</v>
+        <v>44902</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N16" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O16" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44858</v>
+        <v>44921</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>4000</v>
+        <v>2143</v>
       </c>
       <c r="T17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44868</v>
+        <v>44166</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1800,36 +1800,36 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N18" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O18" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P18" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T18" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44879</v>
+        <v>44901</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O19" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P19" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44488</v>
+        <v>44889</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,32 +1964,32 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N20" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="O20" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="P20" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44511</v>
+        <v>44879</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O2" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44511</v>
+        <v>44488</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>320</v>
+        <v>2400</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44859</v>
+        <v>44496</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44519</v>
+        <v>44902</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N5" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O5" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44515</v>
+        <v>44889</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44503</v>
+        <v>44921</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2800</v>
+        <v>2143</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44496</v>
+        <v>44874</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44874</v>
+        <v>44166</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2500</v>
+        <v>667</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44868</v>
+        <v>44901</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44858</v>
+        <v>44503</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="T11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44488</v>
+        <v>44511</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N12" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O12" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P12" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44879</v>
+        <v>44511</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N13" t="n">
-        <v>30000</v>
+        <v>3200</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>3200</v>
       </c>
       <c r="P13" t="n">
-        <v>30000</v>
+        <v>3200</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>320</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44483</v>
+        <v>44515</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N14" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="O14" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P14" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44466</v>
+        <v>44859</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2200</v>
+        <v>4000</v>
       </c>
       <c r="T15" t="n">
         <v>5</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44902</v>
+        <v>44519</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44921</v>
+        <v>44483</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2143</v>
+        <v>2000</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44166</v>
+        <v>44466</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1800,24 +1800,24 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N18" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O18" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P18" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>667</v>
+        <v>2200</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44901</v>
+        <v>44858</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N19" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44889</v>
+        <v>44868</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,20 +1964,20 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O20" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="P20" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44879</v>
+        <v>44921</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N2" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>2143</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44488</v>
+        <v>44166</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,11 +600,11 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
         <v>12000</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2400</v>
+        <v>667</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
         <v>28000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44902</v>
+        <v>44868</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P5" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44889</v>
+        <v>44488</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44921</v>
+        <v>44901</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2143</v>
+        <v>2500</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44874</v>
+        <v>44496</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44166</v>
+        <v>44858</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>667</v>
+        <v>4000</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44901</v>
+        <v>44519</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44503</v>
+        <v>44466</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N11" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="O11" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="P11" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44511</v>
+        <v>44902</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="N12" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44511</v>
+        <v>44515</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O13" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P13" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44515</v>
+        <v>44879</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O14" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T14" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44859</v>
+        <v>44511</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="T15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44519</v>
+        <v>44511</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N16" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="O16" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="P16" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2800</v>
+        <v>320</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44483</v>
+        <v>44874</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44466</v>
+        <v>44483</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N18" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O18" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P18" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="T18" t="n">
         <v>5</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44858</v>
+        <v>44889</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44868</v>
+        <v>44859</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1967,13 +1967,13 @@
         <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T20" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44921</v>
+        <v>44879</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2143</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44166</v>
+        <v>44858</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>667</v>
+        <v>4000</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44503</v>
+        <v>44496</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N4" t="n">
         <v>28000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44868</v>
+        <v>44902</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N5" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O5" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44488</v>
+        <v>44503</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44901</v>
+        <v>44466</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="P7" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44496</v>
+        <v>44483</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44858</v>
+        <v>44488</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44519</v>
+        <v>44921</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N10" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2800</v>
+        <v>2143</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44466</v>
+        <v>44511</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N11" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="O11" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="P11" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="T11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44902</v>
+        <v>44511</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2500</v>
+        <v>320</v>
       </c>
       <c r="T12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44515</v>
+        <v>44889</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O13" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44879</v>
+        <v>44166</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1480,36 +1480,36 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="P14" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3000</v>
+        <v>667</v>
       </c>
       <c r="T14" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44511</v>
+        <v>44519</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
         <v>28000</v>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S15" t="n">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44511</v>
+        <v>44515</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N16" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O16" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44874</v>
+        <v>44901</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44483</v>
+        <v>44859</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="T18" t="n">
         <v>5</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44889</v>
+        <v>44868</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O19" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="P19" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44859</v>
+        <v>44874</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,20 +1964,20 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44879</v>
+        <v>44511</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P2" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44858</v>
+        <v>44511</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>3200</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>3200</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>3200</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>4000</v>
+        <v>320</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44496</v>
+        <v>44859</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44902</v>
+        <v>44519</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P5" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44503</v>
+        <v>44166</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -840,36 +840,36 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44466</v>
+        <v>44889</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="O7" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="T7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44483</v>
+        <v>44503</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44488</v>
+        <v>44515</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="T9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44921</v>
+        <v>44488</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2143</v>
+        <v>2400</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44511</v>
+        <v>44902</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="N11" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O11" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P11" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T11" t="n">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44511</v>
+        <v>44483</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N12" t="n">
-        <v>3200</v>
+        <v>10000</v>
       </c>
       <c r="O12" t="n">
-        <v>3200</v>
+        <v>10000</v>
       </c>
       <c r="P12" t="n">
-        <v>3200</v>
+        <v>10000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>320</v>
+        <v>2000</v>
       </c>
       <c r="T12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44889</v>
+        <v>44466</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="P13" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="T13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44166</v>
+        <v>44874</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1480,36 +1480,36 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>667</v>
+        <v>2500</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44519</v>
+        <v>44858</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N15" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44515</v>
+        <v>44496</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N16" t="n">
         <v>28000</v>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S16" t="n">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44901</v>
+        <v>44879</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P17" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44859</v>
+        <v>44868</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1807,13 +1807,13 @@
         <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="T18" t="n">
         <v>5</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44868</v>
+        <v>44921</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N19" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P19" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2800</v>
+        <v>2143</v>
       </c>
       <c r="T19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44874</v>
+        <v>44901</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44511</v>
+        <v>44519</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
         <v>28000</v>
@@ -542,7 +542,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44511</v>
+        <v>44488</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>320</v>
+        <v>2400</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44859</v>
+        <v>44868</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -687,13 +687,13 @@
         <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44519</v>
+        <v>44901</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O5" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44889</v>
+        <v>44496</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N7" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44503</v>
+        <v>44466</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44515</v>
+        <v>44889</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44488</v>
+        <v>44483</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44902</v>
+        <v>44879</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O11" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P11" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T11" t="n">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44483</v>
+        <v>44921</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N12" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2000</v>
+        <v>2143</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44466</v>
+        <v>44511</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N13" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="O13" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="P13" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="T13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44874</v>
+        <v>44511</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="P14" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>320</v>
       </c>
       <c r="T14" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44858</v>
+        <v>44859</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
         <v>20000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44496</v>
+        <v>44515</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N16" t="n">
         <v>28000</v>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S16" t="n">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44879</v>
+        <v>44858</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="N17" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44868</v>
+        <v>44503</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N18" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="O18" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1829,7 +1829,7 @@
         <v>2800</v>
       </c>
       <c r="T18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44921</v>
+        <v>44874</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O19" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P19" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2143</v>
+        <v>2500</v>
       </c>
       <c r="T19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N20" t="n">
         <v>25000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44519</v>
+        <v>44488</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44488</v>
+        <v>44868</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44868</v>
+        <v>44503</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="P4" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -709,7 +709,7 @@
         <v>2800</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44901</v>
+        <v>44483</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N5" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P5" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44166</v>
+        <v>44511</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -840,36 +840,36 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44496</v>
+        <v>44511</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="P7" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2800</v>
+        <v>320</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44466</v>
+        <v>44879</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="O8" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44889</v>
+        <v>44466</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="P9" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44483</v>
+        <v>44858</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="N10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44879</v>
+        <v>44166</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>667</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44921</v>
+        <v>44519</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2143</v>
+        <v>2800</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44511</v>
+        <v>44515</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N13" t="n">
         <v>28000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44511</v>
+        <v>44902</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="N14" t="n">
-        <v>3200</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>3200</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>3200</v>
+        <v>25000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>320</v>
+        <v>2500</v>
       </c>
       <c r="T14" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44859</v>
+        <v>44901</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44515</v>
+        <v>44874</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N16" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O16" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44858</v>
+        <v>44496</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="T17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44503</v>
+        <v>44889</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1807,13 +1807,13 @@
         <v>50</v>
       </c>
       <c r="N18" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P18" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T18" t="n">
         <v>10</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44874</v>
+        <v>44859</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44902</v>
+        <v>44921</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,20 +1964,20 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="N20" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2500</v>
+        <v>2143</v>
       </c>
       <c r="T20" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44488</v>
+        <v>44874</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44868</v>
+        <v>44166</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44503</v>
+        <v>44921</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N4" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2800</v>
+        <v>2143</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44483</v>
+        <v>44466</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P5" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44879</v>
+        <v>44901</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44466</v>
+        <v>44879</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="O9" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44858</v>
+        <v>44483</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44166</v>
+        <v>44859</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>667</v>
+        <v>4000</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44519</v>
+        <v>44503</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
         <v>28000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44515</v>
+        <v>44519</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
         <v>28000</v>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S13" t="n">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44902</v>
+        <v>44515</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P14" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T14" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44901</v>
+        <v>44868</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O15" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P15" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44874</v>
+        <v>44889</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P16" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44496</v>
+        <v>44488</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,32 +1724,32 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O17" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P17" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44889</v>
+        <v>44902</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N18" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O18" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P18" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T18" t="n">
         <v>10</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44859</v>
+        <v>44496</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="T19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44921</v>
+        <v>44858</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,20 +1964,20 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N20" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2143</v>
+        <v>4000</v>
       </c>
       <c r="T20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44874</v>
+        <v>44511</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P2" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44166</v>
+        <v>44511</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>667</v>
+        <v>320</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44921</v>
+        <v>44902</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2143</v>
+        <v>2500</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44511</v>
+        <v>44858</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="N6" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44511</v>
+        <v>44889</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>3200</v>
+        <v>30000</v>
       </c>
       <c r="O7" t="n">
-        <v>3200</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>3200</v>
+        <v>30000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>320</v>
+        <v>3000</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44901</v>
+        <v>44519</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44879</v>
+        <v>44503</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44483</v>
+        <v>44496</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N10" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="O10" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P10" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44859</v>
+        <v>44879</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44503</v>
+        <v>44515</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N12" t="n">
         <v>28000</v>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S12" t="n">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44519</v>
+        <v>44483</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N13" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O13" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P13" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44515</v>
+        <v>44488</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O14" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P14" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44868</v>
+        <v>44859</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1567,13 +1567,13 @@
         <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T15" t="n">
         <v>5</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44889</v>
+        <v>44868</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O16" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="P16" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44488</v>
+        <v>44874</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,32 +1724,32 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="T17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44902</v>
+        <v>44921</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="N18" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2500</v>
+        <v>2143</v>
       </c>
       <c r="T18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44496</v>
+        <v>44166</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1880,36 +1880,36 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O19" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P19" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T19" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44858</v>
+        <v>44901</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,20 +1964,20 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44511</v>
+        <v>44874</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44511</v>
+        <v>44166</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>320</v>
+        <v>667</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44902</v>
+        <v>44921</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="N4" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2500</v>
+        <v>2143</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44858</v>
+        <v>44511</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44889</v>
+        <v>44511</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>30000</v>
+        <v>3200</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>3200</v>
       </c>
       <c r="P7" t="n">
-        <v>30000</v>
+        <v>3200</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>320</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44519</v>
+        <v>44901</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44503</v>
+        <v>44879</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44496</v>
+        <v>44483</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N10" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O10" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P10" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44879</v>
+        <v>44859</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44515</v>
+        <v>44503</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
         <v>28000</v>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S12" t="n">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44483</v>
+        <v>44519</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="O13" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P13" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44488</v>
+        <v>44515</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N14" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O14" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P14" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="T14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44859</v>
+        <v>44868</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1567,13 +1567,13 @@
         <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="T15" t="n">
         <v>5</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44868</v>
+        <v>44889</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="O16" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="P16" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44874</v>
+        <v>44488</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,32 +1724,32 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P17" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="T17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44921</v>
+        <v>44902</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2143</v>
+        <v>2500</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44166</v>
+        <v>44496</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1880,36 +1880,36 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N19" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O19" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P19" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44901</v>
+        <v>44858</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,20 +1964,20 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N20" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44511</v>
+        <v>44483</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44511</v>
+        <v>44166</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>320</v>
+        <v>667</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44902</v>
+        <v>44466</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="P4" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44466</v>
+        <v>44868</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P5" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44858</v>
+        <v>44496</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44889</v>
+        <v>44503</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -927,13 +927,13 @@
         <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44519</v>
+        <v>44902</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44503</v>
+        <v>44488</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44496</v>
+        <v>44519</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
         <v>28000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44879</v>
+        <v>44515</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="N11" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O11" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P11" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T11" t="n">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44515</v>
+        <v>44859</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44483</v>
+        <v>44879</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="O13" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44488</v>
+        <v>44921</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N14" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2400</v>
+        <v>2143</v>
       </c>
       <c r="T14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44859</v>
+        <v>44874</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44868</v>
+        <v>44511</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N16" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="O16" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S16" t="n">
         <v>2800</v>
       </c>
       <c r="T16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44874</v>
+        <v>44511</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N17" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="P17" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2500</v>
+        <v>320</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44921</v>
+        <v>44901</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2143</v>
+        <v>2500</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44166</v>
+        <v>44858</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1880,36 +1880,36 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="N19" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>667</v>
+        <v>4000</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44901</v>
+        <v>44889</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N20" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O20" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P20" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44483</v>
+        <v>44503</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44166</v>
+        <v>44515</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44466</v>
+        <v>44483</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44868</v>
+        <v>44858</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N5" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44496</v>
+        <v>44166</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -840,36 +840,36 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44503</v>
+        <v>44901</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44902</v>
+        <v>44519</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44488</v>
+        <v>44511</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="T9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44519</v>
+        <v>44511</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="O10" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="P10" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2800</v>
+        <v>320</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44515</v>
+        <v>44496</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N11" t="n">
         <v>28000</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S11" t="n">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44859</v>
+        <v>44879</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44879</v>
+        <v>44889</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
         <v>30000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44511</v>
+        <v>44902</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="N16" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O16" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44511</v>
+        <v>44488</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,32 +1724,32 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="O17" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="P17" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>320</v>
+        <v>2400</v>
       </c>
       <c r="T17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44901</v>
+        <v>44466</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N18" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="O18" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="P18" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="T18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44858</v>
+        <v>44868</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="T19" t="n">
         <v>5</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44889</v>
+        <v>44859</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,20 +1964,20 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44503</v>
+        <v>44166</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44515</v>
+        <v>44858</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N3" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44483</v>
+        <v>44879</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44858</v>
+        <v>44889</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44166</v>
+        <v>44515</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -840,36 +840,36 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44901</v>
+        <v>44519</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44519</v>
+        <v>44868</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1007,17 +1007,17 @@
         <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1029,7 +1029,7 @@
         <v>2800</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44511</v>
+        <v>44496</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N9" t="n">
         <v>28000</v>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S9" t="n">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44511</v>
+        <v>44874</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>3200</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>3200</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>3200</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>320</v>
+        <v>2500</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44496</v>
+        <v>44488</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44879</v>
+        <v>44466</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="N12" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="O12" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="P12" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="T12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44889</v>
+        <v>44921</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N13" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>2143</v>
       </c>
       <c r="T13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44921</v>
+        <v>44483</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2143</v>
+        <v>2000</v>
       </c>
       <c r="T14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44874</v>
+        <v>44503</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O15" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P15" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44488</v>
+        <v>44901</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,32 +1724,32 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="T17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44466</v>
+        <v>44511</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N18" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="O18" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="T18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44868</v>
+        <v>44511</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N19" t="n">
-        <v>14000</v>
+        <v>3200</v>
       </c>
       <c r="O19" t="n">
-        <v>14000</v>
+        <v>3200</v>
       </c>
       <c r="P19" t="n">
-        <v>14000</v>
+        <v>3200</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2800</v>
+        <v>320</v>
       </c>
       <c r="T19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44166</v>
+        <v>44868</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P2" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44858</v>
+        <v>44519</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44879</v>
+        <v>44496</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N4" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P4" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44515</v>
+        <v>44879</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44519</v>
+        <v>44483</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44868</v>
+        <v>44874</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44496</v>
+        <v>44902</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44874</v>
+        <v>44466</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44488</v>
+        <v>44515</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="T11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44466</v>
+        <v>44488</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O12" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44921</v>
+        <v>44859</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2143</v>
+        <v>4000</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44483</v>
+        <v>44921</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N14" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2000</v>
+        <v>2143</v>
       </c>
       <c r="T14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44503</v>
+        <v>44858</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N15" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N16" t="n">
         <v>25000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44901</v>
+        <v>44511</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N17" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P17" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1807,13 +1807,13 @@
         <v>45</v>
       </c>
       <c r="N18" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="P18" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2800</v>
+        <v>320</v>
       </c>
       <c r="T18" t="n">
         <v>10</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44511</v>
+        <v>44503</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O19" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P19" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44859</v>
+        <v>44166</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,36 +1960,36 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>4000</v>
+        <v>667</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44868</v>
+        <v>44166</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44519</v>
+        <v>44858</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N3" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44496</v>
+        <v>44879</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O4" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44879</v>
+        <v>44515</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44483</v>
+        <v>44519</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44874</v>
+        <v>44868</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P8" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44902</v>
+        <v>44496</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44466</v>
+        <v>44874</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="T10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44515</v>
+        <v>44488</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44488</v>
+        <v>44466</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N12" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O12" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P12" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44859</v>
+        <v>44921</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>4000</v>
+        <v>2143</v>
       </c>
       <c r="T13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44921</v>
+        <v>44483</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2143</v>
+        <v>2000</v>
       </c>
       <c r="T14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44858</v>
+        <v>44503</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="T15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N16" t="n">
         <v>25000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44511</v>
+        <v>44901</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1807,13 +1807,13 @@
         <v>45</v>
       </c>
       <c r="N18" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O18" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T18" t="n">
         <v>10</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44503</v>
+        <v>44511</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N19" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="O19" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="P19" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2800</v>
+        <v>320</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44166</v>
+        <v>44859</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,36 +1960,36 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>667</v>
+        <v>4000</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44868</v>
+        <v>44902</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N2" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44519</v>
+        <v>44511</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
         <v>28000</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44496</v>
+        <v>44511</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="O4" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="P4" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2800</v>
+        <v>320</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44889</v>
+        <v>44515</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P5" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44879</v>
+        <v>44859</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44483</v>
+        <v>44879</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="O7" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="T7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44874</v>
+        <v>44889</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44902</v>
+        <v>44874</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
         <v>25000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44466</v>
+        <v>44483</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N10" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O10" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P10" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44515</v>
+        <v>44166</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44488</v>
+        <v>44921</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N12" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2400</v>
+        <v>2143</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44859</v>
+        <v>44496</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="T13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44921</v>
+        <v>44868</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2143</v>
+        <v>2800</v>
       </c>
       <c r="T14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44858</v>
+        <v>44503</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="T15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44901</v>
+        <v>44519</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44511</v>
+        <v>44488</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,32 +1724,32 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O17" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P17" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44511</v>
+        <v>44466</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N18" t="n">
-        <v>3200</v>
+        <v>11000</v>
       </c>
       <c r="O18" t="n">
-        <v>3200</v>
+        <v>11000</v>
       </c>
       <c r="P18" t="n">
-        <v>3200</v>
+        <v>11000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>320</v>
+        <v>2200</v>
       </c>
       <c r="T18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44503</v>
+        <v>44858</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N19" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44166</v>
+        <v>44901</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,36 +1960,36 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N20" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O20" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P20" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>667</v>
+        <v>2500</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44902</v>
+        <v>44868</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P2" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44511</v>
+        <v>44519</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
         <v>28000</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44511</v>
+        <v>44496</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N4" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P4" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44515</v>
+        <v>44889</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O5" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44859</v>
+        <v>44879</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44879</v>
+        <v>44483</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N7" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44889</v>
+        <v>44874</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44874</v>
+        <v>44902</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N9" t="n">
         <v>25000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44483</v>
+        <v>44466</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O10" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P10" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44166</v>
+        <v>44515</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44921</v>
+        <v>44488</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2143</v>
+        <v>2400</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44496</v>
+        <v>44859</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44868</v>
+        <v>44921</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N14" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2800</v>
+        <v>2143</v>
       </c>
       <c r="T14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44503</v>
+        <v>44858</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N15" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44519</v>
+        <v>44901</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N16" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O16" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44488</v>
+        <v>44511</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,32 +1724,32 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N17" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O17" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P17" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="T17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44466</v>
+        <v>44511</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N18" t="n">
-        <v>11000</v>
+        <v>3200</v>
       </c>
       <c r="O18" t="n">
-        <v>11000</v>
+        <v>3200</v>
       </c>
       <c r="P18" t="n">
-        <v>11000</v>
+        <v>3200</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2200</v>
+        <v>320</v>
       </c>
       <c r="T18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44858</v>
+        <v>44503</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="T19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44901</v>
+        <v>44166</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,36 +1960,36 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O20" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P20" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2500</v>
+        <v>667</v>
       </c>
       <c r="T20" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44902</v>
+        <v>44874</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
         <v>25000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44511</v>
+        <v>44483</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N3" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O3" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44511</v>
+        <v>44496</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N4" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P4" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44515</v>
+        <v>44921</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N5" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2800</v>
+        <v>2143</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44859</v>
+        <v>44902</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44879</v>
+        <v>44503</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44889</v>
+        <v>44858</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N8" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44874</v>
+        <v>44859</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44483</v>
+        <v>44879</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="O10" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="P10" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="T10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44166</v>
+        <v>44515</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44921</v>
+        <v>44488</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2143</v>
+        <v>2400</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44496</v>
+        <v>44868</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="O13" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="P13" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1429,7 +1429,7 @@
         <v>2800</v>
       </c>
       <c r="T13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44868</v>
+        <v>44889</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="O14" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44503</v>
+        <v>44511</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N15" t="n">
         <v>28000</v>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S15" t="n">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44519</v>
+        <v>44511</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N16" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="O16" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="P16" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2800</v>
+        <v>320</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44488</v>
+        <v>44166</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1720,11 +1720,11 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
         <v>12000</v>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2400</v>
+        <v>667</v>
       </c>
       <c r="T17" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44466</v>
+        <v>44519</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="O18" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="T18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44858</v>
+        <v>44901</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44901</v>
+        <v>44466</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,32 +1964,32 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N20" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="O20" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="P20" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="T20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44874</v>
+        <v>44519</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P2" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44483</v>
+        <v>44868</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44496</v>
+        <v>44466</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="O4" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="P4" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44921</v>
+        <v>44879</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2143</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44902</v>
+        <v>44515</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44503</v>
+        <v>44874</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44858</v>
+        <v>44889</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44859</v>
+        <v>44901</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44879</v>
+        <v>44496</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N10" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O10" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P10" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44515</v>
+        <v>44483</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N11" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O11" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P11" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44868</v>
+        <v>44858</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N13" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44889</v>
+        <v>44921</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N14" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3000</v>
+        <v>2143</v>
       </c>
       <c r="T14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44511</v>
+        <v>44902</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="N15" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P15" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44511</v>
+        <v>44503</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O16" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44519</v>
+        <v>44859</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1807,17 +1807,17 @@
         <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44901</v>
+        <v>44511</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N19" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O19" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P19" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44466</v>
+        <v>44511</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,32 +1964,32 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N20" t="n">
-        <v>11000</v>
+        <v>3200</v>
       </c>
       <c r="O20" t="n">
-        <v>11000</v>
+        <v>3200</v>
       </c>
       <c r="P20" t="n">
-        <v>11000</v>
+        <v>3200</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2200</v>
+        <v>320</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44519</v>
+        <v>44483</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44868</v>
+        <v>44519</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -607,17 +607,17 @@
         <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="O3" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="P3" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -629,7 +629,7 @@
         <v>2800</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44466</v>
+        <v>44511</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="P4" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44879</v>
+        <v>44511</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>30000</v>
+        <v>3200</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>3200</v>
       </c>
       <c r="P5" t="n">
-        <v>30000</v>
+        <v>3200</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>320</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44515</v>
+        <v>44921</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N6" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2800</v>
+        <v>2143</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44874</v>
+        <v>44466</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="P7" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44889</v>
+        <v>44879</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
         <v>30000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44496</v>
+        <v>44166</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44483</v>
+        <v>44858</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="N11" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="T11" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44488</v>
+        <v>44902</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N12" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44858</v>
+        <v>44496</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="T13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44921</v>
+        <v>44889</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2143</v>
+        <v>3000</v>
       </c>
       <c r="T14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44902</v>
+        <v>44488</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O15" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P15" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="T15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44503</v>
+        <v>44515</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N16" t="n">
         <v>28000</v>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S16" t="n">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44166</v>
+        <v>44503</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1720,36 +1720,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N17" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O17" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P17" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44859</v>
+        <v>44874</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44511</v>
+        <v>44859</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,32 +1884,32 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44511</v>
+        <v>44868</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,20 +1964,20 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>3200</v>
+        <v>14000</v>
       </c>
       <c r="O20" t="n">
-        <v>3200</v>
+        <v>14000</v>
       </c>
       <c r="P20" t="n">
-        <v>3200</v>
+        <v>14000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44166</v>
+        <v>45219</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>667</v>
+        <v>3500</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44858</v>
+        <v>44166</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>4000</v>
+        <v>667</v>
       </c>
       <c r="T11" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44902</v>
+        <v>44858</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1327,17 +1327,17 @@
         <v>90</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44496</v>
+        <v>44902</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N13" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O13" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P13" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44889</v>
+        <v>44496</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N14" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P14" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T14" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44488</v>
+        <v>44889</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="P15" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="T15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44515</v>
+        <v>44488</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O16" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P16" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44503</v>
+        <v>44515</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N17" t="n">
         <v>28000</v>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S17" t="n">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44874</v>
+        <v>44503</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N18" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O18" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T18" t="n">
         <v>10</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44859</v>
+        <v>44874</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44868</v>
+        <v>44859</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1967,28 +1967,108 @@
         <v>30</v>
       </c>
       <c r="N20" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O20" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>4000</v>
+      </c>
+      <c r="T20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>44868</v>
+      </c>
+      <c r="E21" t="n">
+        <v>9</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>30</v>
+      </c>
+      <c r="N21" t="n">
         <v>14000</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O21" t="n">
         <v>14000</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P21" t="n">
         <v>14000</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>$/bandeja 5 kilos</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="S20" t="n">
+      <c r="S21" t="n">
         <v>2800</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T21" t="n">
         <v>5</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44466</v>
+        <v>45222</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="T7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44879</v>
+        <v>44466</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="P8" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44901</v>
+        <v>44879</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45219</v>
+        <v>44901</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44166</v>
+        <v>45219</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>667</v>
+        <v>3500</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44858</v>
+        <v>44166</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4000</v>
+        <v>667</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44902</v>
+        <v>44858</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1407,17 +1407,17 @@
         <v>90</v>
       </c>
       <c r="N13" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="T13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44496</v>
+        <v>44902</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N14" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T14" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44889</v>
+        <v>44496</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N15" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O15" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P15" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44488</v>
+        <v>44889</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="O16" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="P16" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="T16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44515</v>
+        <v>44488</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,32 +1724,32 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O17" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P17" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44503</v>
+        <v>44515</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N18" t="n">
         <v>28000</v>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S18" t="n">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44874</v>
+        <v>44503</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O19" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P19" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44859</v>
+        <v>44874</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,20 +1964,20 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44868</v>
+        <v>44859</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2047,28 +2047,108 @@
         <v>30</v>
       </c>
       <c r="N21" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O21" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P21" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>4000</v>
+      </c>
+      <c r="T21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>44868</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>30</v>
+      </c>
+      <c r="N22" t="n">
         <v>14000</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O22" t="n">
         <v>14000</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P22" t="n">
         <v>14000</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>$/bandeja 5 kilos</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="S21" t="n">
+      <c r="S22" t="n">
         <v>2800</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T22" t="n">
         <v>5</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44483</v>
+        <v>44901</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44519</v>
+        <v>45219</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O3" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P3" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44511</v>
+        <v>44519</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
         <v>28000</v>
@@ -702,7 +702,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44511</v>
+        <v>44488</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="O5" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="P5" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>320</v>
+        <v>2400</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44921</v>
+        <v>44859</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2143</v>
+        <v>4000</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45222</v>
+        <v>44515</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
         <v>28000</v>
@@ -942,7 +942,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S7" t="n">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44466</v>
+        <v>44858</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N8" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2200</v>
+        <v>4000</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44879</v>
+        <v>44483</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N9" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="P9" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44901</v>
+        <v>44166</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2500</v>
+        <v>667</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45219</v>
+        <v>44879</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O11" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P11" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="T11" t="n">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44166</v>
+        <v>44496</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N12" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O12" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P12" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44858</v>
+        <v>44466</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44496</v>
+        <v>44868</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="P15" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1589,7 +1589,7 @@
         <v>2800</v>
       </c>
       <c r="T15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44889</v>
+        <v>45222</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N16" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O16" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44488</v>
+        <v>44889</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,32 +1724,32 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N17" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="O17" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="P17" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="T17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44515</v>
+        <v>44511</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N18" t="n">
         <v>28000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44503</v>
+        <v>44511</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N19" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="O19" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="P19" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2800</v>
+        <v>320</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44874</v>
+        <v>44503</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N20" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O20" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P20" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44859</v>
+        <v>44874</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,20 +2044,20 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N21" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O21" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P21" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44868</v>
+        <v>44921</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,20 +2124,20 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N22" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O22" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,90 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2800</v>
+        <v>2143</v>
       </c>
       <c r="T22" t="n">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45224</v>
+      </c>
+      <c r="E23" t="n">
+        <v>9</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>40</v>
+      </c>
+      <c r="N23" t="n">
+        <v>30000</v>
+      </c>
+      <c r="O23" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P23" t="n">
+        <v>30000</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Provincia de Los Andes</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>3000</v>
+      </c>
+      <c r="T23" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44868</v>
+        <v>45225</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="O15" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="P15" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="T15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45222</v>
+        <v>45225</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="N16" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="O16" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="P16" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44889</v>
+        <v>44868</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O17" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="P17" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44511</v>
+        <v>45222</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N18" t="n">
         <v>28000</v>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S18" t="n">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44511</v>
+        <v>44889</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>3200</v>
+        <v>30000</v>
       </c>
       <c r="O19" t="n">
-        <v>3200</v>
+        <v>30000</v>
       </c>
       <c r="P19" t="n">
-        <v>3200</v>
+        <v>30000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>320</v>
+        <v>3000</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44503</v>
+        <v>44511</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N20" t="n">
         <v>28000</v>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S20" t="n">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44874</v>
+        <v>44511</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N21" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="O21" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="P21" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2500</v>
+        <v>320</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44921</v>
+        <v>44503</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,20 +2124,20 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="P22" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2143</v>
+        <v>2800</v>
       </c>
       <c r="T22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45224</v>
+        <v>44874</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2207,28 +2207,188 @@
         <v>40</v>
       </c>
       <c r="N23" t="n">
+        <v>25000</v>
+      </c>
+      <c r="O23" t="n">
+        <v>25000</v>
+      </c>
+      <c r="P23" t="n">
+        <v>25000</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>2500</v>
+      </c>
+      <c r="T23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="E24" t="n">
+        <v>9</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>55</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>2143</v>
+      </c>
+      <c r="T24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45224</v>
+      </c>
+      <c r="E25" t="n">
+        <v>9</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>40</v>
+      </c>
+      <c r="N25" t="n">
         <v>30000</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O25" t="n">
         <v>30000</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P25" t="n">
         <v>30000</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>Provincia de Los Andes</t>
         </is>
       </c>
-      <c r="S23" t="n">
+      <c r="S25" t="n">
         <v>3000</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T25" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44889</v>
+        <v>45229</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="N19" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O19" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P19" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44511</v>
+        <v>45229</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N20" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44511</v>
+        <v>44889</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N21" t="n">
-        <v>3200</v>
+        <v>30000</v>
       </c>
       <c r="O21" t="n">
-        <v>3200</v>
+        <v>30000</v>
       </c>
       <c r="P21" t="n">
-        <v>3200</v>
+        <v>30000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>320</v>
+        <v>3000</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44503</v>
+        <v>44511</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N22" t="n">
         <v>28000</v>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S22" t="n">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44874</v>
+        <v>44511</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N23" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="O23" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="P23" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2500</v>
+        <v>320</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44921</v>
+        <v>44503</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,20 +2284,20 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N24" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="O24" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="P24" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2143</v>
+        <v>2800</v>
       </c>
       <c r="T24" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45224</v>
+        <v>44874</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2367,28 +2367,188 @@
         <v>40</v>
       </c>
       <c r="N25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="O25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="P25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>2500</v>
+      </c>
+      <c r="T25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="E26" t="n">
+        <v>9</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>55</v>
+      </c>
+      <c r="N26" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O26" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P26" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>2143</v>
+      </c>
+      <c r="T26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45224</v>
+      </c>
+      <c r="E27" t="n">
+        <v>9</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>40</v>
+      </c>
+      <c r="N27" t="n">
         <v>30000</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O27" t="n">
         <v>30000</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P27" t="n">
         <v>30000</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>Provincia de Los Andes</t>
         </is>
       </c>
-      <c r="S25" t="n">
+      <c r="S27" t="n">
         <v>3000</v>
       </c>
-      <c r="T25" t="n">
+      <c r="T27" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44901</v>
+        <v>45229</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="N2" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="P2" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="T2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45219</v>
+        <v>45229</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44519</v>
+        <v>45224</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O4" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44488</v>
+        <v>44879</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="O5" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44859</v>
+        <v>44901</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44515</v>
+        <v>44874</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44858</v>
+        <v>45222</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44483</v>
+        <v>44496</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="N9" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="T9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44166</v>
+        <v>44488</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1160,11 +1160,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
         <v>12000</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>667</v>
+        <v>2400</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44879</v>
+        <v>45225</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O11" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P11" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="T11" t="n">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44496</v>
+        <v>45225</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N12" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="O12" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="P12" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44466</v>
+        <v>44166</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1400,24 +1400,24 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N13" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2200</v>
+        <v>667</v>
       </c>
       <c r="T13" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44902</v>
+        <v>44868</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P14" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45225</v>
+        <v>44519</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O15" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P15" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45225</v>
+        <v>44503</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="O16" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44868</v>
+        <v>44483</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N17" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O17" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P17" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T17" t="n">
         <v>5</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45222</v>
+        <v>44859</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45229</v>
+        <v>44511</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="N19" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O19" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P19" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45229</v>
+        <v>44511</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>3200</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>3200</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>3200</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2000</v>
+        <v>320</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44889</v>
+        <v>44902</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N21" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O21" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P21" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44511</v>
+        <v>44515</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N22" t="n">
         <v>28000</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44511</v>
+        <v>44466</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,32 +2204,32 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N23" t="n">
-        <v>3200</v>
+        <v>11000</v>
       </c>
       <c r="O23" t="n">
-        <v>3200</v>
+        <v>11000</v>
       </c>
       <c r="P23" t="n">
-        <v>3200</v>
+        <v>11000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>320</v>
+        <v>2200</v>
       </c>
       <c r="T23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44503</v>
+        <v>44889</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2287,13 +2287,13 @@
         <v>50</v>
       </c>
       <c r="N24" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O24" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P24" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44874</v>
+        <v>45219</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N25" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="O25" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="P25" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45224</v>
+        <v>44858</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,32 +2524,32 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N27" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O27" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P27" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44483</v>
+        <v>45236</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="O17" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="P17" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="T17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44859</v>
+        <v>44483</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="T18" t="n">
         <v>5</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44511</v>
+        <v>44859</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,32 +1884,32 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1967,13 +1967,13 @@
         <v>45</v>
       </c>
       <c r="N20" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O20" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P20" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44902</v>
+        <v>44511</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="N21" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="O21" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="P21" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2500</v>
+        <v>320</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44515</v>
+        <v>44902</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N22" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O22" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P22" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44466</v>
+        <v>44515</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2207,29 +2207,29 @@
         <v>80</v>
       </c>
       <c r="N23" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="O23" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="P23" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="T23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44889</v>
+        <v>44466</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,32 +2284,32 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N24" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="O24" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="P24" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="T24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45219</v>
+        <v>44889</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O25" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P25" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44921</v>
+        <v>45219</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,32 +2444,32 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N26" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="O26" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="P26" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2143</v>
+        <v>3500</v>
       </c>
       <c r="T26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44858</v>
+        <v>44921</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,31 +2524,111 @@
         </is>
       </c>
       <c r="M27" t="n">
+        <v>55</v>
+      </c>
+      <c r="N27" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O27" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P27" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>2143</v>
+      </c>
+      <c r="T27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>44858</v>
+      </c>
+      <c r="E28" t="n">
+        <v>9</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>90</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N28" t="n">
         <v>20000</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O28" t="n">
         <v>20000</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P28" t="n">
         <v>20000</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>$/bandeja 5 kilos</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="S27" t="n">
+      <c r="S28" t="n">
         <v>4000</v>
       </c>
-      <c r="T27" t="n">
+      <c r="T28" t="n">
         <v>5</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44496</v>
+        <v>45238</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1087,13 +1087,13 @@
         <v>55</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44488</v>
+        <v>44496</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="T10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45225</v>
+        <v>44488</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="O12" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="P12" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="T12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44166</v>
+        <v>45225</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>667</v>
+        <v>2400</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44868</v>
+        <v>44166</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1480,36 +1480,36 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O14" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P14" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T14" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44519</v>
+        <v>44868</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1567,17 +1567,17 @@
         <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="P15" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1589,7 +1589,7 @@
         <v>2800</v>
       </c>
       <c r="T15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44503</v>
+        <v>44519</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
         <v>28000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45236</v>
+        <v>44503</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N17" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O17" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P17" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44483</v>
+        <v>45236</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="O18" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="P18" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="T18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44859</v>
+        <v>44483</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="T19" t="n">
         <v>5</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44511</v>
+        <v>44859</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,32 +1964,32 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2047,13 +2047,13 @@
         <v>45</v>
       </c>
       <c r="N21" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O21" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P21" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44902</v>
+        <v>44511</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="N22" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="O22" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="P22" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2500</v>
+        <v>320</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44515</v>
+        <v>44902</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N23" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O23" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P23" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44466</v>
+        <v>44515</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2287,29 +2287,29 @@
         <v>80</v>
       </c>
       <c r="N24" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="O24" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="P24" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="T24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44889</v>
+        <v>44466</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,32 +2364,32 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N25" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="O25" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="P25" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="T25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45219</v>
+        <v>44889</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N26" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O26" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P26" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44921</v>
+        <v>45219</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,32 +2524,32 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="O27" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="P27" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>2143</v>
+        <v>3500</v>
       </c>
       <c r="T27" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44858</v>
+        <v>44921</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,31 +2604,111 @@
         </is>
       </c>
       <c r="M28" t="n">
+        <v>55</v>
+      </c>
+      <c r="N28" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O28" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P28" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>2143</v>
+      </c>
+      <c r="T28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>44858</v>
+      </c>
+      <c r="E29" t="n">
+        <v>9</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>90</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N29" t="n">
         <v>20000</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O29" t="n">
         <v>20000</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P29" t="n">
         <v>20000</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>$/bandeja 5 kilos</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="S28" t="n">
+      <c r="S29" t="n">
         <v>4000</v>
       </c>
-      <c r="T28" t="n">
+      <c r="T29" t="n">
         <v>5</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2647,68 +2647,148 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="E29" t="n">
+        <v>9</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>55</v>
+      </c>
+      <c r="N29" t="n">
+        <v>26000</v>
+      </c>
+      <c r="O29" t="n">
+        <v>26000</v>
+      </c>
+      <c r="P29" t="n">
+        <v>26000</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S29" t="n">
+        <v>5200</v>
+      </c>
+      <c r="T29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
         <v>44858</v>
       </c>
-      <c r="E29" t="n">
-        <v>9</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>100104004</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Níspero</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Californiana(o)</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="E30" t="n">
+        <v>9</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="M30" t="n">
         <v>90</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N30" t="n">
         <v>20000</v>
       </c>
-      <c r="O29" t="n">
+      <c r="O30" t="n">
         <v>20000</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P30" t="n">
         <v>20000</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>$/bandeja 5 kilos</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="S29" t="n">
+      <c r="S30" t="n">
         <v>4000</v>
       </c>
-      <c r="T29" t="n">
+      <c r="T30" t="n">
         <v>5</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45236</v>
+        <v>45240</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N18" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="O18" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="P18" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="T18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44483</v>
+        <v>45236</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="O19" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="P19" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="T19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44859</v>
+        <v>44483</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="T20" t="n">
         <v>5</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44511</v>
+        <v>44859</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,32 +2044,32 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N21" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O21" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P21" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -2127,13 +2127,13 @@
         <v>45</v>
       </c>
       <c r="N22" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O22" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P22" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44902</v>
+        <v>44511</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="N23" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="O23" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="P23" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2500</v>
+        <v>320</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44515</v>
+        <v>44902</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N24" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O24" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P24" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44466</v>
+        <v>44515</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2367,29 +2367,29 @@
         <v>80</v>
       </c>
       <c r="N25" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="O25" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="P25" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="T25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44889</v>
+        <v>44466</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,32 +2444,32 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N26" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="O26" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="P26" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="T26" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45219</v>
+        <v>44889</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N27" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O27" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P27" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44921</v>
+        <v>45219</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,32 +2604,32 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>2143</v>
+        <v>3500</v>
       </c>
       <c r="T28" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45239</v>
+        <v>44921</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2687,17 +2687,17 @@
         <v>55</v>
       </c>
       <c r="N29" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="O29" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="P29" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>5200</v>
+        <v>2143</v>
       </c>
       <c r="T29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -2727,68 +2727,148 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="E30" t="n">
+        <v>9</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>55</v>
+      </c>
+      <c r="N30" t="n">
+        <v>26000</v>
+      </c>
+      <c r="O30" t="n">
+        <v>26000</v>
+      </c>
+      <c r="P30" t="n">
+        <v>26000</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S30" t="n">
+        <v>5200</v>
+      </c>
+      <c r="T30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
         <v>44858</v>
       </c>
-      <c r="E30" t="n">
-        <v>9</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>100104004</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Níspero</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Californiana(o)</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="E31" t="n">
+        <v>9</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="M31" t="n">
         <v>90</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N31" t="n">
         <v>20000</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O31" t="n">
         <v>20000</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P31" t="n">
         <v>20000</v>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>$/bandeja 5 kilos</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="S30" t="n">
+      <c r="S31" t="n">
         <v>4000</v>
       </c>
-      <c r="T30" t="n">
+      <c r="T31" t="n">
         <v>5</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45222</v>
+        <v>45243</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2800</v>
+        <v>4400</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45238</v>
+        <v>45222</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44496</v>
+        <v>45238</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1167,13 +1167,13 @@
         <v>55</v>
       </c>
       <c r="N10" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O10" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P10" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44488</v>
+        <v>44496</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="T11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45225</v>
+        <v>44488</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="O12" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="T12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="O13" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="P13" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44166</v>
+        <v>45225</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="N14" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="O14" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="P14" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>667</v>
+        <v>2400</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44868</v>
+        <v>44166</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1560,36 +1560,36 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N15" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O15" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P15" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T15" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44519</v>
+        <v>44868</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1647,17 +1647,17 @@
         <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="O16" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="P16" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1669,7 +1669,7 @@
         <v>2800</v>
       </c>
       <c r="T16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44503</v>
+        <v>44519</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
         <v>28000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45240</v>
+        <v>44503</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N18" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="O18" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>4800</v>
+        <v>2800</v>
       </c>
       <c r="T18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45236</v>
+        <v>45240</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N19" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="O19" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="P19" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="T19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44483</v>
+        <v>45236</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,20 +1964,20 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="O20" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="P20" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44859</v>
+        <v>44483</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N21" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O21" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P21" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="T21" t="n">
         <v>5</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44511</v>
+        <v>44859</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,32 +2124,32 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N22" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O22" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2207,13 +2207,13 @@
         <v>45</v>
       </c>
       <c r="N23" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O23" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P23" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44902</v>
+        <v>44511</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="N24" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="O24" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="P24" t="n">
-        <v>25000</v>
+        <v>3200</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2500</v>
+        <v>320</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44515</v>
+        <v>44902</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N25" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O25" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P25" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44466</v>
+        <v>44515</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2447,29 +2447,29 @@
         <v>80</v>
       </c>
       <c r="N26" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="O26" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="P26" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="T26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44889</v>
+        <v>44466</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,32 +2524,32 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N27" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="O27" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="P27" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="T27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45219</v>
+        <v>44889</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N28" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O28" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P28" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44921</v>
+        <v>45219</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,32 +2684,32 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N29" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="O29" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="P29" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>2143</v>
+        <v>3500</v>
       </c>
       <c r="T29" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45239</v>
+        <v>44921</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2767,17 +2767,17 @@
         <v>55</v>
       </c>
       <c r="N30" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="O30" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="P30" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>5200</v>
+        <v>2143</v>
       </c>
       <c r="T30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -2807,68 +2807,148 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="E31" t="n">
+        <v>9</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>55</v>
+      </c>
+      <c r="N31" t="n">
+        <v>26000</v>
+      </c>
+      <c r="O31" t="n">
+        <v>26000</v>
+      </c>
+      <c r="P31" t="n">
+        <v>26000</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S31" t="n">
+        <v>5200</v>
+      </c>
+      <c r="T31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>10</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
         <v>44858</v>
       </c>
-      <c r="E31" t="n">
-        <v>9</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>100104004</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Níspero</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Californiana(o)</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="E32" t="n">
+        <v>9</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="M32" t="n">
         <v>90</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N32" t="n">
         <v>20000</v>
       </c>
-      <c r="O31" t="n">
+      <c r="O32" t="n">
         <v>20000</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P32" t="n">
         <v>20000</v>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>$/bandeja 5 kilos</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="S31" t="n">
+      <c r="S32" t="n">
         <v>4000</v>
       </c>
-      <c r="T31" t="n">
+      <c r="T32" t="n">
         <v>5</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44889</v>
+        <v>45244</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,20 +2604,20 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O28" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P28" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>3000</v>
+        <v>4400</v>
       </c>
       <c r="T28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45219</v>
+        <v>44889</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N29" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O29" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P29" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="T29" t="n">
         <v>10</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44921</v>
+        <v>45219</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,32 +2764,32 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N30" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="O30" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="P30" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>2143</v>
+        <v>3500</v>
       </c>
       <c r="T30" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45239</v>
+        <v>44921</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2847,17 +2847,17 @@
         <v>55</v>
       </c>
       <c r="N31" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="O31" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="P31" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>5200</v>
+        <v>2143</v>
       </c>
       <c r="T31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -2887,68 +2887,148 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="E32" t="n">
+        <v>9</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>55</v>
+      </c>
+      <c r="N32" t="n">
+        <v>26000</v>
+      </c>
+      <c r="O32" t="n">
+        <v>26000</v>
+      </c>
+      <c r="P32" t="n">
+        <v>26000</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S32" t="n">
+        <v>5200</v>
+      </c>
+      <c r="T32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>10</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
         <v>44858</v>
       </c>
-      <c r="E32" t="n">
-        <v>9</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>100104004</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Níspero</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Californiana(o)</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="E33" t="n">
+        <v>9</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="M33" t="n">
         <v>90</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N33" t="n">
         <v>20000</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O33" t="n">
         <v>20000</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P33" t="n">
         <v>20000</v>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>$/bandeja 5 kilos</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="S32" t="n">
+      <c r="S33" t="n">
         <v>4000</v>
       </c>
-      <c r="T32" t="n">
+      <c r="T33" t="n">
         <v>5</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44488</v>
+        <v>45246</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="O12" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="P12" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45225</v>
+        <v>45246</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3500</v>
+        <v>4400</v>
       </c>
       <c r="T13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45225</v>
+        <v>44488</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1480,36 +1480,36 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="O14" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="P14" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S14" t="n">
         <v>2400</v>
       </c>
       <c r="T14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44166</v>
+        <v>45225</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1560,36 +1560,36 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="P15" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>667</v>
+        <v>3500</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44868</v>
+        <v>45225</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1640,36 +1640,36 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N16" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="O16" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P16" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44519</v>
+        <v>44166</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1720,36 +1720,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O17" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P17" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44503</v>
+        <v>44868</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="P18" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1829,7 +1829,7 @@
         <v>2800</v>
       </c>
       <c r="T18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45240</v>
+        <v>44519</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="O19" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="P19" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>4800</v>
+        <v>2800</v>
       </c>
       <c r="T19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45236</v>
+        <v>44503</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N20" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O20" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P20" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44483</v>
+        <v>45240</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N21" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="O21" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="P21" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2000</v>
+        <v>4800</v>
       </c>
       <c r="T21" t="n">
         <v>5</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44859</v>
+        <v>45236</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2127,17 +2127,17 @@
         <v>30</v>
       </c>
       <c r="N22" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O22" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P22" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44511</v>
+        <v>44483</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,32 +2204,32 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N23" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="O23" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="P23" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44511</v>
+        <v>44859</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,20 +2284,20 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>3200</v>
+        <v>20000</v>
       </c>
       <c r="O24" t="n">
-        <v>3200</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>3200</v>
+        <v>20000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>320</v>
+        <v>4000</v>
       </c>
       <c r="T24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44902</v>
+        <v>44511</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="N25" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O25" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P25" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44515</v>
+        <v>44511</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N26" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="O26" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="P26" t="n">
-        <v>28000</v>
+        <v>3200</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2800</v>
+        <v>320</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44466</v>
+        <v>44902</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,32 +2524,32 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N27" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="O27" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="P27" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="T27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45244</v>
+        <v>44515</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,32 +2604,32 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N28" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="O28" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P28" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>4400</v>
+        <v>2800</v>
       </c>
       <c r="T28" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44889</v>
+        <v>44466</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,32 +2684,32 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N29" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="O29" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="P29" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="T29" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45219</v>
+        <v>45244</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,32 +2764,32 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N30" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="O30" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="P30" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>3500</v>
+        <v>4400</v>
       </c>
       <c r="T30" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44921</v>
+        <v>44889</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,20 +2844,20 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N31" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O31" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P31" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2866,10 +2866,10 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>2143</v>
+        <v>3000</v>
       </c>
       <c r="T31" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45239</v>
+        <v>45219</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,32 +2924,32 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N32" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="O32" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="P32" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>5200</v>
+        <v>3500</v>
       </c>
       <c r="T32" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2967,68 +2967,228 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="E33" t="n">
+        <v>9</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>55</v>
+      </c>
+      <c r="N33" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O33" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P33" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S33" t="n">
+        <v>2143</v>
+      </c>
+      <c r="T33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>10</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="E34" t="n">
+        <v>9</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>55</v>
+      </c>
+      <c r="N34" t="n">
+        <v>26000</v>
+      </c>
+      <c r="O34" t="n">
+        <v>26000</v>
+      </c>
+      <c r="P34" t="n">
+        <v>26000</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S34" t="n">
+        <v>5200</v>
+      </c>
+      <c r="T34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>10</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
         <v>44858</v>
       </c>
-      <c r="E33" t="n">
-        <v>9</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>100104004</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Níspero</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Californiana(o)</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="E35" t="n">
+        <v>9</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="M35" t="n">
         <v>90</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N35" t="n">
         <v>20000</v>
       </c>
-      <c r="O33" t="n">
+      <c r="O35" t="n">
         <v>20000</v>
       </c>
-      <c r="P33" t="n">
+      <c r="P35" t="n">
         <v>20000</v>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>$/bandeja 5 kilos</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="S33" t="n">
+      <c r="S35" t="n">
         <v>4000</v>
       </c>
-      <c r="T33" t="n">
+      <c r="T35" t="n">
         <v>5</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45229</v>
+        <v>44496</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="N2" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O2" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P2" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="T2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45229</v>
+        <v>44879</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45224</v>
+        <v>45238</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N4" t="n">
         <v>30000</v>
@@ -702,7 +702,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44879</v>
+        <v>44868</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="P5" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44901</v>
+        <v>44466</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="P6" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44874</v>
+        <v>44889</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45243</v>
+        <v>45236</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>4400</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45222</v>
+        <v>44166</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45238</v>
+        <v>45240</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="O10" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="P10" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44496</v>
+        <v>44519</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
         <v>28000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45246</v>
+        <v>44902</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="N12" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45246</v>
+        <v>44503</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P13" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>4400</v>
+        <v>2800</v>
       </c>
       <c r="T13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44488</v>
+        <v>44874</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="T14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45225</v>
+        <v>44901</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N15" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="O15" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="P15" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45225</v>
+        <v>45246</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="N16" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O16" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P16" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44166</v>
+        <v>45246</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1720,36 +1720,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>667</v>
+        <v>4400</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44868</v>
+        <v>44515</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N18" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="O18" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S18" t="n">
         <v>2800</v>
       </c>
       <c r="T18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44519</v>
+        <v>45219</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="O19" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P19" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44503</v>
+        <v>45229</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="N20" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O20" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P20" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45240</v>
+        <v>45229</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2040,36 +2040,36 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>80</v>
       </c>
       <c r="N21" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O21" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P21" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="T21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45236</v>
+        <v>44511</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N22" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O22" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P22" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44483</v>
+        <v>44511</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,20 +2204,20 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N23" t="n">
-        <v>10000</v>
+        <v>3200</v>
       </c>
       <c r="O23" t="n">
-        <v>10000</v>
+        <v>3200</v>
       </c>
       <c r="P23" t="n">
-        <v>10000</v>
+        <v>3200</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2000</v>
+        <v>320</v>
       </c>
       <c r="T23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44859</v>
+        <v>45224</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,32 +2284,32 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N24" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O24" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P24" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44511</v>
+        <v>44921</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,32 +2364,32 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N25" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="O25" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="P25" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2800</v>
+        <v>2143</v>
       </c>
       <c r="T25" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44511</v>
+        <v>45239</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,20 +2444,20 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N26" t="n">
-        <v>3200</v>
+        <v>26000</v>
       </c>
       <c r="O26" t="n">
-        <v>3200</v>
+        <v>26000</v>
       </c>
       <c r="P26" t="n">
-        <v>3200</v>
+        <v>26000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>320</v>
+        <v>5200</v>
       </c>
       <c r="T26" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44902</v>
+        <v>45225</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N27" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="O27" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="P27" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44515</v>
+        <v>45225</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N28" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="O28" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="P28" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44466</v>
+        <v>44483</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N29" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O29" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P29" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="T29" t="n">
         <v>5</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45244</v>
+        <v>44859</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N30" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O30" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P30" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="T30" t="n">
         <v>5</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44889</v>
+        <v>44488</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,32 +2844,32 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N31" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="O31" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="P31" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="T31" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45219</v>
+        <v>45244</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,32 +2924,32 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N32" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="O32" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="P32" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>3500</v>
+        <v>4400</v>
       </c>
       <c r="T32" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44921</v>
+        <v>45243</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,20 +3004,20 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="N33" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O33" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P33" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>2143</v>
+        <v>4400</v>
       </c>
       <c r="T33" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45239</v>
+        <v>44858</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N34" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="O34" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="P34" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>5200</v>
+        <v>4000</v>
       </c>
       <c r="T34" t="n">
         <v>5</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44858</v>
+        <v>45222</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,20 +3164,20 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="N35" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O35" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P35" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="T35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44496</v>
+        <v>45229</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="N2" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O2" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P2" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="T2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44879</v>
+        <v>45229</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45238</v>
+        <v>45224</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
         <v>30000</v>
@@ -702,7 +702,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44868</v>
+        <v>44879</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="O5" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44466</v>
+        <v>44901</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="O6" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44889</v>
+        <v>44874</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45236</v>
+        <v>45243</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>4400</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44166</v>
+        <v>45222</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45240</v>
+        <v>45238</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N10" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O10" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P10" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4800</v>
+        <v>3000</v>
       </c>
       <c r="T10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44519</v>
+        <v>44496</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N11" t="n">
         <v>28000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44902</v>
+        <v>45246</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44503</v>
+        <v>45246</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2800</v>
+        <v>4400</v>
       </c>
       <c r="T13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44874</v>
+        <v>44488</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P14" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="T14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44901</v>
+        <v>45225</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="O15" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="P15" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45246</v>
+        <v>45225</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="N16" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="O16" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="P16" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45246</v>
+        <v>44166</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1720,36 +1720,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P17" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>4400</v>
+        <v>667</v>
       </c>
       <c r="T17" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44515</v>
+        <v>44868</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="P18" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S18" t="n">
         <v>2800</v>
       </c>
       <c r="T18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45219</v>
+        <v>44519</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O19" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P19" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45229</v>
+        <v>44503</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="N20" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O20" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P20" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45229</v>
+        <v>45240</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2040,36 +2040,36 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>80</v>
       </c>
       <c r="N21" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O21" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P21" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2000</v>
+        <v>4800</v>
       </c>
       <c r="T21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44511</v>
+        <v>45236</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N22" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O22" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P22" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44511</v>
+        <v>44483</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,20 +2204,20 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N23" t="n">
-        <v>3200</v>
+        <v>10000</v>
       </c>
       <c r="O23" t="n">
-        <v>3200</v>
+        <v>10000</v>
       </c>
       <c r="P23" t="n">
-        <v>3200</v>
+        <v>10000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>320</v>
+        <v>2000</v>
       </c>
       <c r="T23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45224</v>
+        <v>44859</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,32 +2284,32 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N24" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O24" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44921</v>
+        <v>44511</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,32 +2364,32 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N25" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="O25" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="P25" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2143</v>
+        <v>2800</v>
       </c>
       <c r="T25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45239</v>
+        <v>44511</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,20 +2444,20 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N26" t="n">
-        <v>26000</v>
+        <v>3200</v>
       </c>
       <c r="O26" t="n">
-        <v>26000</v>
+        <v>3200</v>
       </c>
       <c r="P26" t="n">
-        <v>26000</v>
+        <v>3200</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>5200</v>
+        <v>320</v>
       </c>
       <c r="T26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45225</v>
+        <v>44902</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N27" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="O27" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="P27" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45225</v>
+        <v>44515</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N28" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="O28" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="P28" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44483</v>
+        <v>44466</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N29" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O29" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P29" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="T29" t="n">
         <v>5</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44859</v>
+        <v>45244</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N30" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O30" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P30" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="T30" t="n">
         <v>5</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44488</v>
+        <v>44889</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,32 +2844,32 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N31" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="O31" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="P31" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="T31" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45244</v>
+        <v>45219</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,32 +2924,32 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N32" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="O32" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="P32" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>4400</v>
+        <v>3500</v>
       </c>
       <c r="T32" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45243</v>
+        <v>44921</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,20 +3004,20 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N33" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O33" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P33" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>4400</v>
+        <v>2143</v>
       </c>
       <c r="T33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44858</v>
+        <v>45239</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="N34" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="O34" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="P34" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>4000</v>
+        <v>5200</v>
       </c>
       <c r="T34" t="n">
         <v>5</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45222</v>
+        <v>44858</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,20 +3164,20 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="N35" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O35" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P35" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T35" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44166</v>
+        <v>45250</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>667</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45240</v>
+        <v>44166</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4800</v>
+        <v>667</v>
       </c>
       <c r="T10" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44519</v>
+        <v>45240</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N11" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="O11" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="P11" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2800</v>
+        <v>4800</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44902</v>
+        <v>44519</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T12" t="n">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44503</v>
+        <v>44902</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N13" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O13" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P13" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T13" t="n">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44874</v>
+        <v>44503</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P14" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T14" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44901</v>
+        <v>44874</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45246</v>
+        <v>44901</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N16" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O16" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P17" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>4400</v>
+        <v>3000</v>
       </c>
       <c r="T17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44515</v>
+        <v>45246</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2800</v>
+        <v>4400</v>
       </c>
       <c r="T18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45219</v>
+        <v>44515</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N19" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O19" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P19" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45229</v>
+        <v>45219</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="O20" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P20" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N21" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="O21" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="P21" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44511</v>
+        <v>45229</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N22" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O22" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2207,13 +2207,13 @@
         <v>45</v>
       </c>
       <c r="N23" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O23" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P23" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45224</v>
+        <v>44511</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N24" t="n">
-        <v>30000</v>
+        <v>3200</v>
       </c>
       <c r="O24" t="n">
-        <v>30000</v>
+        <v>3200</v>
       </c>
       <c r="P24" t="n">
-        <v>30000</v>
+        <v>3200</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>3000</v>
+        <v>320</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44921</v>
+        <v>45224</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,32 +2364,32 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N25" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O25" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P25" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2143</v>
+        <v>3000</v>
       </c>
       <c r="T25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45239</v>
+        <v>44921</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2447,17 +2447,17 @@
         <v>55</v>
       </c>
       <c r="N26" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="O26" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="P26" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>5200</v>
+        <v>2143</v>
       </c>
       <c r="T26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45225</v>
+        <v>45239</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,32 +2524,32 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="N27" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="O27" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="P27" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>3500</v>
+        <v>5200</v>
       </c>
       <c r="T27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -2600,20 +2600,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N28" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="O28" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="P28" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44483</v>
+        <v>45225</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,36 +2680,36 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="N29" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="O29" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="P29" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="T29" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44859</v>
+        <v>44483</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N30" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O30" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P30" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="T30" t="n">
         <v>5</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44488</v>
+        <v>44859</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N31" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O31" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P31" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="T31" t="n">
         <v>5</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45244</v>
+        <v>44488</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2927,13 +2927,13 @@
         <v>100</v>
       </c>
       <c r="N32" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O32" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P32" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>4400</v>
+        <v>2400</v>
       </c>
       <c r="T32" t="n">
         <v>5</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44858</v>
+        <v>45243</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O34" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P34" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="T34" t="n">
         <v>5</v>
@@ -3127,68 +3127,148 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
+        <v>44858</v>
+      </c>
+      <c r="E35" t="n">
+        <v>9</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>90</v>
+      </c>
+      <c r="N35" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O35" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P35" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S35" t="n">
+        <v>4000</v>
+      </c>
+      <c r="T35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>10</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
         <v>45222</v>
       </c>
-      <c r="E35" t="n">
-        <v>9</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>100104004</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Níspero</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Californiana(o)</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="E36" t="n">
+        <v>9</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="M36" t="n">
         <v>25</v>
       </c>
-      <c r="N35" t="n">
+      <c r="N36" t="n">
         <v>28000</v>
       </c>
-      <c r="O35" t="n">
+      <c r="O36" t="n">
         <v>28000</v>
       </c>
-      <c r="P35" t="n">
+      <c r="P36" t="n">
         <v>28000</v>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="S35" t="n">
+      <c r="S36" t="n">
         <v>2800</v>
       </c>
-      <c r="T35" t="n">
+      <c r="T36" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44868</v>
+        <v>45257</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="O5" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44466</v>
+        <v>45257</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2200</v>
+        <v>4000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44889</v>
+        <v>44868</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="P7" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45236</v>
+        <v>44466</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="P8" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45250</v>
+        <v>44889</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
         <v>30000</v>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S9" t="n">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44166</v>
+        <v>45236</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>667</v>
+        <v>3000</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45240</v>
+        <v>45250</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O11" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P11" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>4800</v>
+        <v>3000</v>
       </c>
       <c r="T11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44519</v>
+        <v>44166</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O12" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="T12" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44902</v>
+        <v>45240</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N13" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O13" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P13" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2500</v>
+        <v>4800</v>
       </c>
       <c r="T13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44503</v>
+        <v>44519</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
         <v>28000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44874</v>
+        <v>44902</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N15" t="n">
         <v>25000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44901</v>
+        <v>44503</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45246</v>
+        <v>44874</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T17" t="n">
         <v>10</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45246</v>
+        <v>44901</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P18" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>4400</v>
+        <v>2500</v>
       </c>
       <c r="T18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44515</v>
+        <v>45246</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N19" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O19" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P19" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45219</v>
+        <v>45246</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,32 +1964,32 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3500</v>
+        <v>4400</v>
       </c>
       <c r="T20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45229</v>
+        <v>44515</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="N21" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O21" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P21" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45229</v>
+        <v>45219</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N22" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="O22" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="P22" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="T22" t="n">
         <v>10</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44511</v>
+        <v>45229</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="N23" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O23" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P23" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44511</v>
+        <v>45229</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N24" t="n">
-        <v>3200</v>
+        <v>20000</v>
       </c>
       <c r="O24" t="n">
-        <v>3200</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>3200</v>
+        <v>20000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>320</v>
+        <v>2000</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45224</v>
+        <v>44511</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N25" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O25" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P25" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44921</v>
+        <v>44511</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,20 +2444,20 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N26" t="n">
-        <v>15000</v>
+        <v>3200</v>
       </c>
       <c r="O26" t="n">
-        <v>15000</v>
+        <v>3200</v>
       </c>
       <c r="P26" t="n">
-        <v>15000</v>
+        <v>3200</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2143</v>
+        <v>320</v>
       </c>
       <c r="T26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45239</v>
+        <v>45224</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,32 +2524,32 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N27" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="O27" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="P27" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>5200</v>
+        <v>3000</v>
       </c>
       <c r="T27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45225</v>
+        <v>44921</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,32 +2604,32 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="N28" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="O28" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="P28" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>3500</v>
+        <v>2143</v>
       </c>
       <c r="T28" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45225</v>
+        <v>45239</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2680,36 +2680,36 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="N29" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="O29" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="P29" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>2400</v>
+        <v>5200</v>
       </c>
       <c r="T29" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44483</v>
+        <v>45225</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,32 +2764,32 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="N30" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="O30" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="P30" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="T30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44859</v>
+        <v>45225</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2840,36 +2840,36 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N31" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O31" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P31" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="T31" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44488</v>
+        <v>44483</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N32" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O32" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P32" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="T32" t="n">
         <v>5</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45244</v>
+        <v>44859</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N33" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O33" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P33" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="T33" t="n">
         <v>5</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45243</v>
+        <v>44488</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3087,13 +3087,13 @@
         <v>100</v>
       </c>
       <c r="N34" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O34" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P34" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>4400</v>
+        <v>2400</v>
       </c>
       <c r="T34" t="n">
         <v>5</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44858</v>
+        <v>45244</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N35" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O35" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P35" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="T35" t="n">
         <v>5</v>
@@ -3207,68 +3207,228 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="E36" t="n">
+        <v>9</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>100</v>
+      </c>
+      <c r="N36" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O36" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P36" t="n">
+        <v>22000</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S36" t="n">
+        <v>4400</v>
+      </c>
+      <c r="T36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>10</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>44858</v>
+      </c>
+      <c r="E37" t="n">
+        <v>9</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>90</v>
+      </c>
+      <c r="N37" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O37" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P37" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S37" t="n">
+        <v>4000</v>
+      </c>
+      <c r="T37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>10</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
         <v>45222</v>
       </c>
-      <c r="E36" t="n">
-        <v>9</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>100104004</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Níspero</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Californiana(o)</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="E38" t="n">
+        <v>9</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="M38" t="n">
         <v>25</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N38" t="n">
         <v>28000</v>
       </c>
-      <c r="O36" t="n">
+      <c r="O38" t="n">
         <v>28000</v>
       </c>
-      <c r="P36" t="n">
+      <c r="P38" t="n">
         <v>28000</v>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="S36" t="n">
+      <c r="S38" t="n">
         <v>2800</v>
       </c>
-      <c r="T36" t="n">
+      <c r="T38" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44902</v>
+        <v>45260</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N15" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O15" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P15" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44503</v>
+        <v>45260</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="N16" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44874</v>
+        <v>44902</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N17" t="n">
         <v>25000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44901</v>
+        <v>44503</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N18" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O18" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T18" t="n">
         <v>10</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45246</v>
+        <v>44874</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O19" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P19" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T19" t="n">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45246</v>
+        <v>44901</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,20 +1964,20 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P20" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>4400</v>
+        <v>2500</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44515</v>
+        <v>45246</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N21" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O21" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P21" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45219</v>
+        <v>45246</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,32 +2124,32 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="O22" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="P22" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>3500</v>
+        <v>4400</v>
       </c>
       <c r="T22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45229</v>
+        <v>44515</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="N23" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O23" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P23" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="T23" t="n">
         <v>10</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45229</v>
+        <v>45219</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N24" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="O24" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="P24" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44511</v>
+        <v>45229</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="N25" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O25" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P25" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44511</v>
+        <v>45229</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2440,20 +2440,20 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N26" t="n">
-        <v>3200</v>
+        <v>20000</v>
       </c>
       <c r="O26" t="n">
-        <v>3200</v>
+        <v>20000</v>
       </c>
       <c r="P26" t="n">
-        <v>3200</v>
+        <v>20000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>320</v>
+        <v>2000</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45224</v>
+        <v>44511</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N27" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O27" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P27" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44921</v>
+        <v>44511</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,20 +2604,20 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N28" t="n">
-        <v>15000</v>
+        <v>3200</v>
       </c>
       <c r="O28" t="n">
-        <v>15000</v>
+        <v>3200</v>
       </c>
       <c r="P28" t="n">
-        <v>15000</v>
+        <v>3200</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>2143</v>
+        <v>320</v>
       </c>
       <c r="T28" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45239</v>
+        <v>45224</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,32 +2684,32 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N29" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="O29" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="P29" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>5200</v>
+        <v>3000</v>
       </c>
       <c r="T29" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45225</v>
+        <v>44921</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,32 +2764,32 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="N30" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="O30" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="P30" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>3500</v>
+        <v>2143</v>
       </c>
       <c r="T30" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45225</v>
+        <v>45239</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2840,36 +2840,36 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="N31" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="O31" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="P31" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>2400</v>
+        <v>5200</v>
       </c>
       <c r="T31" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44483</v>
+        <v>45225</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,32 +2924,32 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="N32" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="O32" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="P32" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="T32" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44859</v>
+        <v>45225</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3000,36 +3000,36 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N33" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O33" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P33" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="T33" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44488</v>
+        <v>44483</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N34" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O34" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P34" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="T34" t="n">
         <v>5</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45244</v>
+        <v>44859</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N35" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O35" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P35" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="T35" t="n">
         <v>5</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45243</v>
+        <v>44488</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3247,13 +3247,13 @@
         <v>100</v>
       </c>
       <c r="N36" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O36" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P36" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3262,11 +3262,11 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>4400</v>
+        <v>2400</v>
       </c>
       <c r="T36" t="n">
         <v>5</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44858</v>
+        <v>45244</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N37" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O37" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P37" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="T37" t="n">
         <v>5</v>
@@ -3367,68 +3367,228 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="E38" t="n">
+        <v>9</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>100</v>
+      </c>
+      <c r="N38" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O38" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P38" t="n">
+        <v>22000</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S38" t="n">
+        <v>4400</v>
+      </c>
+      <c r="T38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>10</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>44858</v>
+      </c>
+      <c r="E39" t="n">
+        <v>9</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>90</v>
+      </c>
+      <c r="N39" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O39" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P39" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S39" t="n">
+        <v>4000</v>
+      </c>
+      <c r="T39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>10</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
         <v>45222</v>
       </c>
-      <c r="E38" t="n">
-        <v>9</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>100104004</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Níspero</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Californiana(o)</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="E40" t="n">
+        <v>9</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="M40" t="n">
         <v>25</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N40" t="n">
         <v>28000</v>
       </c>
-      <c r="O38" t="n">
+      <c r="O40" t="n">
         <v>28000</v>
       </c>
-      <c r="P38" t="n">
+      <c r="P40" t="n">
         <v>28000</v>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="S38" t="n">
+      <c r="S40" t="n">
         <v>2800</v>
       </c>
-      <c r="T38" t="n">
+      <c r="T40" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44496</v>
+        <v>45257</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O2" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44879</v>
+        <v>45257</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45238</v>
+        <v>45229</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="N4" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O4" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P4" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45257</v>
+        <v>45229</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45257</v>
+        <v>44858</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44868</v>
+        <v>45225</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="O7" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="P7" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="T7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44466</v>
+        <v>45225</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1000,36 +1000,36 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N8" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="O8" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="P8" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44889</v>
+        <v>45238</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N9" t="n">
         <v>30000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45236</v>
+        <v>44902</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N10" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T10" t="n">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45250</v>
+        <v>45260</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="N11" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O11" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P11" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T11" t="n">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44166</v>
+        <v>45260</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="N12" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>667</v>
+        <v>4000</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44519</v>
+        <v>44889</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O14" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T14" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45260</v>
+        <v>45222</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
         <v>28000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45260</v>
+        <v>45246</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44902</v>
+        <v>45246</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2500</v>
+        <v>4400</v>
       </c>
       <c r="T17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44503</v>
+        <v>44519</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
         <v>28000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44874</v>
+        <v>45239</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N19" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="O19" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="P19" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2500</v>
+        <v>5200</v>
       </c>
       <c r="T19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44901</v>
+        <v>44868</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,20 +1964,20 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O20" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P20" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45246</v>
+        <v>44921</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,20 +2044,20 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="N21" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>3000</v>
+        <v>2143</v>
       </c>
       <c r="T21" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45246</v>
+        <v>44503</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,20 +2124,20 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N22" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="O22" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P22" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>4400</v>
+        <v>2800</v>
       </c>
       <c r="T22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44515</v>
+        <v>44488</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,32 +2204,32 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O23" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P23" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45219</v>
+        <v>44511</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N24" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O24" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P24" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="T24" t="n">
         <v>10</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45229</v>
+        <v>44511</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="N25" t="n">
-        <v>32000</v>
+        <v>3200</v>
       </c>
       <c r="O25" t="n">
-        <v>32000</v>
+        <v>3200</v>
       </c>
       <c r="P25" t="n">
-        <v>32000</v>
+        <v>3200</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>3200</v>
+        <v>320</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45229</v>
+        <v>44166</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,32 +2444,32 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N26" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O26" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P26" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2000</v>
+        <v>667</v>
       </c>
       <c r="T26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44511</v>
+        <v>45243</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2524,32 +2524,32 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N27" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O27" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P27" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>2800</v>
+        <v>4400</v>
       </c>
       <c r="T27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44511</v>
+        <v>45219</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,16 +2604,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N28" t="n">
-        <v>3200</v>
+        <v>35000</v>
       </c>
       <c r="O28" t="n">
-        <v>3200</v>
+        <v>35000</v>
       </c>
       <c r="P28" t="n">
-        <v>3200</v>
+        <v>35000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>320</v>
+        <v>3500</v>
       </c>
       <c r="T28" t="n">
         <v>10</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45224</v>
+        <v>44859</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,32 +2684,32 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N29" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O29" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P29" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T29" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44921</v>
+        <v>44515</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,32 +2764,32 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="N30" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="O30" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="P30" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>2143</v>
+        <v>2800</v>
       </c>
       <c r="T30" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45239</v>
+        <v>45250</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,32 +2844,32 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N31" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="O31" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="P31" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>5200</v>
+        <v>3000</v>
       </c>
       <c r="T31" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,16 +2924,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N32" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O32" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P32" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45225</v>
+        <v>44874</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3000,20 +3000,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N33" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O33" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P33" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="T33" t="n">
         <v>10</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44483</v>
+        <v>44879</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,20 +3084,20 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N34" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="O34" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="P34" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="T34" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44859</v>
+        <v>45236</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3167,17 +3167,17 @@
         <v>30</v>
       </c>
       <c r="N35" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O35" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P35" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44488</v>
+        <v>44466</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N36" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O36" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P36" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="T36" t="n">
         <v>5</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45244</v>
+        <v>44483</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N37" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O37" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P37" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="T37" t="n">
         <v>5</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45243</v>
+        <v>44901</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,20 +3404,20 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N38" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O38" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P38" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>4400</v>
+        <v>2500</v>
       </c>
       <c r="T38" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44858</v>
+        <v>44496</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3484,20 +3484,20 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="N39" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O39" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P39" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3506,10 +3506,10 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="T39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45222</v>
+        <v>45244</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3564,20 +3564,20 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N40" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O40" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P40" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>2800</v>
+        <v>4400</v>
       </c>
       <c r="T40" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45222</v>
+        <v>45272</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="N15" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45246</v>
+        <v>45222</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N16" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O16" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P17" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>4400</v>
+        <v>3000</v>
       </c>
       <c r="T17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44519</v>
+        <v>45246</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>2800</v>
+        <v>4400</v>
       </c>
       <c r="T18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45239</v>
+        <v>44519</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="O19" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="P19" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>5200</v>
+        <v>2800</v>
       </c>
       <c r="T19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44868</v>
+        <v>45239</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N20" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="O20" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="P20" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>2800</v>
+        <v>5200</v>
       </c>
       <c r="T20" t="n">
         <v>5</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44921</v>
+        <v>44868</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,20 +2044,20 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P21" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2143</v>
+        <v>2800</v>
       </c>
       <c r="T21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44503</v>
+        <v>44921</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,20 +2124,20 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N22" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="O22" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2800</v>
+        <v>2143</v>
       </c>
       <c r="T22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44488</v>
+        <v>44503</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,32 +2204,32 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N23" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O23" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P23" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="T23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44511</v>
+        <v>44488</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,32 +2284,32 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="O24" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P24" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="T24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -2367,13 +2367,13 @@
         <v>45</v>
       </c>
       <c r="N25" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="O25" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="P25" t="n">
-        <v>3200</v>
+        <v>28000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>320</v>
+        <v>2800</v>
       </c>
       <c r="T25" t="n">
         <v>10</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44166</v>
+        <v>44511</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2440,36 +2440,36 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N26" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="O26" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="P26" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>667</v>
+        <v>320</v>
       </c>
       <c r="T26" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45243</v>
+        <v>44166</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2520,36 +2520,36 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O27" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P27" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>4400</v>
+        <v>667</v>
       </c>
       <c r="T27" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45219</v>
+        <v>45243</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2604,32 +2604,32 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N28" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="O28" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="P28" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>3500</v>
+        <v>4400</v>
       </c>
       <c r="T28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44859</v>
+        <v>45219</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,32 +2684,32 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N29" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="O29" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="P29" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="T29" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44515</v>
+        <v>44859</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,32 +2764,32 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N30" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O30" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P30" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T30" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45250</v>
+        <v>44515</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="N31" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O31" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P31" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T31" t="n">
         <v>10</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45224</v>
+        <v>45250</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N32" t="n">
         <v>30000</v>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44874</v>
+        <v>45224</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3007,13 +3007,13 @@
         <v>40</v>
       </c>
       <c r="N33" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="O33" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P33" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3022,11 +3022,11 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T33" t="n">
         <v>10</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44879</v>
+        <v>44874</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3084,16 +3084,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N34" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="O34" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P34" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="S34" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T34" t="n">
         <v>10</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45236</v>
+        <v>44879</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N35" t="n">
         <v>30000</v>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44466</v>
+        <v>45236</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,32 +3244,32 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N36" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="O36" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="P36" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="T36" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44483</v>
+        <v>44466</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N37" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O37" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P37" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="T37" t="n">
         <v>5</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44901</v>
+        <v>44483</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,20 +3404,20 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N38" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O38" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P38" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3426,10 +3426,10 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="T38" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44496</v>
+        <v>44901</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N39" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O39" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P39" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T39" t="n">
         <v>10</v>
@@ -3527,68 +3527,148 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="E40" t="n">
+        <v>9</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>55</v>
+      </c>
+      <c r="N40" t="n">
+        <v>28000</v>
+      </c>
+      <c r="O40" t="n">
+        <v>28000</v>
+      </c>
+      <c r="P40" t="n">
+        <v>28000</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S40" t="n">
+        <v>2800</v>
+      </c>
+      <c r="T40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
         <v>45244</v>
       </c>
-      <c r="E40" t="n">
-        <v>9</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>100104004</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Níspero</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Californiana(o)</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="E41" t="n">
+        <v>9</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Californiana(o)</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="M41" t="n">
         <v>100</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N41" t="n">
         <v>22000</v>
       </c>
-      <c r="O40" t="n">
+      <c r="O41" t="n">
         <v>22000</v>
       </c>
-      <c r="P40" t="n">
+      <c r="P41" t="n">
         <v>22000</v>
       </c>
-      <c r="Q40" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>$/bandeja 5 kilos</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="S40" t="n">
+      <c r="S41" t="n">
         <v>4400</v>
       </c>
-      <c r="T40" t="n">
+      <c r="T41" t="n">
         <v>5</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45257</v>
+        <v>44483</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45257</v>
+        <v>45225</v>
       </c>
       <c r="E3" t="n">
         <v>9</v>
@@ -607,29 +607,29 @@
         <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45229</v>
+        <v>45225</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="N4" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="P4" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45229</v>
+        <v>44874</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44858</v>
+        <v>44515</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45225</v>
+        <v>44511</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45225</v>
+        <v>44511</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="N8" t="n">
-        <v>24000</v>
+        <v>3200</v>
       </c>
       <c r="O8" t="n">
-        <v>24000</v>
+        <v>3200</v>
       </c>
       <c r="P8" t="n">
-        <v>24000</v>
+        <v>3200</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2400</v>
+        <v>320</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45238</v>
+        <v>44503</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44902</v>
+        <v>44166</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2500</v>
+        <v>667</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45260</v>
+        <v>44921</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="N11" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 7 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2800</v>
+        <v>2143</v>
       </c>
       <c r="T11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45260</v>
+        <v>44889</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45240</v>
+        <v>45236</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="O13" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>4800</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44889</v>
+        <v>45219</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P14" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="T14" t="n">
         <v>10</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45272</v>
+        <v>45243</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
         <v>22000</v>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="T15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45222</v>
+        <v>45238</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N16" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="O16" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P16" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45246</v>
+        <v>45224</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
         <v>30000</v>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S17" t="n">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45246</v>
+        <v>45272</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N18" t="n">
         <v>22000</v>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>4400</v>
+        <v>2200</v>
       </c>
       <c r="T18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44519</v>
+        <v>45260</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="N19" t="n">
         <v>28000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45239</v>
+        <v>45260</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>55</v>
+        <v>400</v>
       </c>
       <c r="N20" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>5200</v>
+        <v>4000</v>
       </c>
       <c r="T20" t="n">
         <v>5</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44868</v>
+        <v>44466</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N21" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O21" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P21" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="T21" t="n">
         <v>5</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44921</v>
+        <v>45222</v>
       </c>
       <c r="E22" t="n">
         <v>9</v>
@@ -2124,20 +2124,20 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="P22" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/bandeja 7 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>2143</v>
+        <v>2800</v>
       </c>
       <c r="T22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44503</v>
+        <v>44859</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
@@ -2204,20 +2204,20 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N23" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="O23" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="P23" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="T23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44488</v>
+        <v>44901</v>
       </c>
       <c r="E24" t="n">
         <v>9</v>
@@ -2284,32 +2284,32 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N24" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O24" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P24" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="T24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44511</v>
+        <v>44868</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
@@ -2364,32 +2364,32 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N25" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="O25" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="P25" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S25" t="n">
         <v>2800</v>
       </c>
       <c r="T25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44511</v>
+        <v>44879</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N26" t="n">
-        <v>3200</v>
+        <v>30000</v>
       </c>
       <c r="O26" t="n">
-        <v>3200</v>
+        <v>30000</v>
       </c>
       <c r="P26" t="n">
-        <v>3200</v>
+        <v>30000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>320</v>
+        <v>3000</v>
       </c>
       <c r="T26" t="n">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44166</v>
+        <v>45246</v>
       </c>
       <c r="E27" t="n">
         <v>9</v>
@@ -2520,36 +2520,36 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N27" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="O27" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="P27" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>667</v>
+        <v>3000</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45243</v>
+        <v>45246</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45219</v>
+        <v>45257</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
@@ -2684,16 +2684,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N29" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="O29" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P29" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="T29" t="n">
         <v>10</v>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44859</v>
+        <v>45257</v>
       </c>
       <c r="E30" t="n">
         <v>9</v>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N30" t="n">
         <v>20000</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44515</v>
+        <v>44902</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
@@ -2844,16 +2844,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N31" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O31" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P31" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="T31" t="n">
         <v>10</v>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45250</v>
+        <v>45239</v>
       </c>
       <c r="E32" t="n">
         <v>9</v>
@@ -2924,32 +2924,32 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N32" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="O32" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P32" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Provincia de Los Andes</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>3000</v>
+        <v>5200</v>
       </c>
       <c r="T32" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45224</v>
+        <v>45229</v>
       </c>
       <c r="E33" t="n">
         <v>9</v>
@@ -3004,16 +3004,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="N33" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="O33" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P33" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="S33" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="T33" t="n">
         <v>10</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44874</v>
+        <v>45229</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -3080,20 +3080,20 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N34" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O34" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P34" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3102,11 +3102,11 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="T34" t="n">
         <v>10</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44879</v>
+        <v>45250</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Los Andes</t>
         </is>
       </c>
       <c r="S35" t="n">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45236</v>
+        <v>44496</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -3244,16 +3244,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N36" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O36" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P36" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="S36" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="T36" t="n">
         <v>10</v>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44466</v>
+        <v>44858</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -3324,16 +3324,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N37" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O37" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P37" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>2200</v>
+        <v>4000</v>
       </c>
       <c r="T37" t="n">
         <v>5</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44483</v>
+        <v>45240</v>
       </c>
       <c r="E38" t="n">
         <v>9</v>
@@ -3404,16 +3404,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N38" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="O38" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="P38" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>2000</v>
+        <v>4800</v>
       </c>
       <c r="T38" t="n">
         <v>5</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44901</v>
+        <v>44488</v>
       </c>
       <c r="E39" t="n">
         <v>9</v>
@@ -3484,32 +3484,32 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N39" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O39" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P39" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="T39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44496</v>
+        <v>45244</v>
       </c>
       <c r="E40" t="n">
         <v>9</v>
@@ -3564,20 +3564,20 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="N40" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O40" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P40" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>2800</v>
+        <v>4400</v>
       </c>
       <c r="T40" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45244</v>
+        <v>44519</v>
       </c>
       <c r="E41" t="n">
         <v>9</v>
@@ -3644,20 +3644,20 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N41" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="O41" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P41" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>4400</v>
+        <v>2800</v>
       </c>
       <c r="T41" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
